--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1354352000726367</v>
+        <v>0.1346249872143219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07526668153068894</v>
+        <v>0.05064106873618957</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07969114435427592</v>
+        <v>0.07017909838626722</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01555456974815371</v>
+        <v>0.05444557788461459</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001209557440273173</v>
+        <v>0.01330837725157444</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07262995542079412</v>
+        <v>0.04606830723528688</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03305258284029141</v>
+        <v>0.03494596083789411</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03015671399966915</v>
+        <v>0.01077168266309177</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235484408887998</v>
+        <v>0.00696817925357652</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03747626571335379</v>
+        <v>0.07472649909905027</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07551337910375844</v>
+        <v>0.05027372857202793</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04002995832087713</v>
+        <v>0.0988845272815435</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08344080346408002</v>
+        <v>0.01101351641971573</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06688760520416627</v>
+        <v>0.05423718105340832</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01085398464945716</v>
+        <v>0.02626464189715581</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03214190435833182</v>
+        <v>0.007373062950139952</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05901618710147993</v>
+        <v>0.06252854989710192</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05224614257459361</v>
+        <v>0.02233208037994316</v>
       </c>
       <c r="W2" t="n">
-        <v>0.07588569968785776</v>
+        <v>0.08464551325185227</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05184815994678302</v>
+        <v>0.06289642934207974</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0270953573568202</v>
+        <v>0.02039971006589035</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.02803039754863255</v>
+        <v>0.04153980717966425</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0171449873893781</v>
+        <v>0.06696308937616059</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02247311815740383</v>
+        <v>0.02859341098577124</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.07706403177297293</v>
+        <v>0.08658538737642299</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1645895654986813</v>
+        <v>0.1528111068789463</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03707265921779559</v>
+        <v>0.02596424638597058</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04450008727347377</v>
+        <v>0.06189873257281119</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01487093342247946</v>
+        <v>0.06242490200703862</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02982139369372974</v>
+        <v>0.00560792879274469</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06662479646710825</v>
+        <v>0.07082806342140066</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01247102566585507</v>
+        <v>0.01261145886694525</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00273247393964193</v>
+        <v>0.01349363403550889</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01383965407396275</v>
+        <v>0.006129057111832504</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03921430052968695</v>
+        <v>0.03160182514581299</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06641490521934029</v>
+        <v>0.02983464518875486</v>
       </c>
       <c r="P3" t="n">
-        <v>0.007389818868700879</v>
+        <v>0.0588445388823302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05733894975344953</v>
+        <v>0.04084541814905505</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02470502565886314</v>
+        <v>0.02940934399475624</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002286616930563461</v>
+        <v>0.007841943210163268</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05254827737570436</v>
+        <v>0.06110389948269578</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06051769216315715</v>
+        <v>0.07094731354207029</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04112306503781114</v>
+        <v>0.0580399439642896</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05043110737176862</v>
+        <v>0.0783264309168932</v>
       </c>
       <c r="X3" t="n">
-        <v>0.09643286770074916</v>
+        <v>0.04938313053406202</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.008602315058036766</v>
+        <v>0.06943161035200843</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.08575660531832875</v>
+        <v>0.04112628898499278</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.08938044902371373</v>
+        <v>0.02070189987973325</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.09592498023607947</v>
+        <v>0.09360374457812973</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1124740774366604</v>
+        <v>0.1003643442651757</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1671938537649961</v>
+        <v>0.1728516123251957</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06718635443523037</v>
+        <v>0.07124421415736068</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09559763716701926</v>
+        <v>0.056709424823064</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06034433305530251</v>
+        <v>0.00357282470449149</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0328272079710409</v>
+        <v>0.05481452032795066</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005041219644217453</v>
+        <v>0.07527234995104616</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006321856655421293</v>
+        <v>0.01405822089165859</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01266107565842045</v>
+        <v>0.01992596567070338</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06796406069611954</v>
+        <v>0.01816981863531944</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09949222565326532</v>
+        <v>0.06575079646731866</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002899802422096399</v>
+        <v>0.07740196828569834</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07494158008467618</v>
+        <v>0.01557589004371409</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.006310580594199251</v>
+        <v>0.0003243291520911399</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07389019038349523</v>
+        <v>0.06867850936811951</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04804400119188944</v>
+        <v>0.0006704201363489084</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002245545032418242</v>
+        <v>0.001379034467886735</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03435363892081828</v>
+        <v>0.03654271188107841</v>
       </c>
       <c r="V4" t="n">
-        <v>0.05169619248514105</v>
+        <v>0.04755418297989138</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0463772569891855</v>
+        <v>0.06293890481051707</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05959311025712091</v>
+        <v>0.07462574489499092</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.09944875912511938</v>
+        <v>0.07186127874020523</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.02535058974161756</v>
+        <v>0.06299637514463581</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01660515369484321</v>
+        <v>0.03343747859686132</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01080762814134205</v>
+        <v>0.06649503586904798</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.6357095149997479</v>
+        <v>-0.6362626895486008</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8045549998546946</v>
+        <v>0.8586950802547249</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01200756362059005</v>
+        <v>0.08136189100011419</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02086429143030935</v>
+        <v>0.05322206301264353</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003632774323009947</v>
+        <v>0.006188563962800838</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1003785043968631</v>
+        <v>0.004116140291031286</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02608887292560042</v>
+        <v>0.0114622908593105</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08634739369190325</v>
+        <v>0.07076820821344236</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09099870858868894</v>
+        <v>0.06193620203560029</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01179833302438139</v>
+        <v>0.02347423365062093</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05069292143163896</v>
+        <v>0.003478680902676673</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0166847243441168</v>
+        <v>0.01530862459719201</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002320928112056966</v>
+        <v>0.05947633680851885</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08272601177670605</v>
+        <v>0.04734381810130141</v>
       </c>
       <c r="R5" t="n">
-        <v>0.06294841872506214</v>
+        <v>0.07312044908805122</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04819306106729781</v>
+        <v>0.04450313920855094</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09128803282467339</v>
+        <v>0.09919768890187101</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04008537385513</v>
+        <v>0.006058607914214995</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02581574547880258</v>
+        <v>0.009355667908267959</v>
       </c>
       <c r="W5" t="n">
-        <v>0.008509744305244123</v>
+        <v>0.1024090012636608</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01612635642823789</v>
+        <v>0.06661243354747859</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.08633303395052547</v>
+        <v>0.008703329531111951</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0170468688105843</v>
+        <v>0.04666719824866183</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.009025021572845876</v>
+        <v>0.01349033751100618</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.09008731531573104</v>
+        <v>0.09174509344187162</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.7284720500639754</v>
+        <v>-0.635638224653324</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2311190544133758</v>
+        <v>0.2305987529891005</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07947284317936001</v>
+        <v>0.0737766532773327</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02592521280590681</v>
+        <v>0.01525687562415192</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03593927492430735</v>
+        <v>0.03091249821186144</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09258660173116573</v>
+        <v>0.06057704739967927</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04573558492931609</v>
+        <v>0.01437192089088579</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01904335451139566</v>
+        <v>0.01773914554218651</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05159854220020891</v>
+        <v>0.01693994593265558</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0383956408984709</v>
+        <v>0.01629467868630426</v>
       </c>
       <c r="N6" t="n">
-        <v>0.007880208834468216</v>
+        <v>0.01735014241885713</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004951545739634694</v>
+        <v>0.04886676720744107</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03114238669751837</v>
+        <v>0.0903438112549694</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01552821448105097</v>
+        <v>0.01339742723374264</v>
       </c>
       <c r="R6" t="n">
-        <v>0.06219084020533643</v>
+        <v>0.08128221212573934</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09113972746625626</v>
+        <v>0.04385793457905855</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01345881087418804</v>
+        <v>0.00175105520969132</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09861274439953287</v>
+        <v>0.07262885963437871</v>
       </c>
       <c r="V6" t="n">
-        <v>0.005263645059475392</v>
+        <v>0.009827166261214399</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1053162414018839</v>
+        <v>0.07791546009597368</v>
       </c>
       <c r="X6" t="n">
-        <v>0.039201838963209</v>
+        <v>0.08392249985149174</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0004598506357635009</v>
+        <v>0.06649011142398578</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.07581200817390825</v>
+        <v>0.07837329119381921</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.004577558558266542</v>
+        <v>0.05480740620606037</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.05576732332937603</v>
+        <v>0.01331708973851929</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2301812006741532</v>
+        <v>0.1713750758374028</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3519962733389536</v>
+        <v>0.3805227702506809</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01255147739753301</v>
+        <v>0.02590748616440311</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01282076030247151</v>
+        <v>0.06102416919909617</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06868978688637441</v>
+        <v>0.1210313511877179</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02236985330031918</v>
+        <v>0.03894547228986699</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1198690622838835</v>
+        <v>0.04496134734597992</v>
       </c>
       <c r="K7" t="n">
-        <v>0.009085536371397659</v>
+        <v>0.001275469894583494</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005892733940631747</v>
+        <v>0.04205874608804631</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003216695667760759</v>
+        <v>0.0463163418142691</v>
       </c>
       <c r="N7" t="n">
-        <v>0.004480207044362774</v>
+        <v>0.03054500632850686</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007264689935415238</v>
+        <v>0.001381757832778892</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1177360081163752</v>
+        <v>0.04295408685783123</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05904918173872335</v>
+        <v>0.07105428846589236</v>
       </c>
       <c r="R7" t="n">
-        <v>0.06798619300354393</v>
+        <v>0.02419508389004905</v>
       </c>
       <c r="S7" t="n">
-        <v>0.006267006743267202</v>
+        <v>0.0347272778977111</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1107138374369034</v>
+        <v>0.1200361519862386</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03502796596037058</v>
+        <v>0.02171921666954463</v>
       </c>
       <c r="V7" t="n">
-        <v>0.110278385283572</v>
+        <v>0.09976104564902236</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01811350244317856</v>
+        <v>0.06613810518778955</v>
       </c>
       <c r="X7" t="n">
-        <v>0.06435912665901411</v>
+        <v>0.0005977917300371818</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01689861948625931</v>
+        <v>0.0003332860518374052</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02643990289785236</v>
+        <v>0.01380815718142643</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.04103284312876591</v>
+        <v>0.02337502512806755</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.05985662397202431</v>
+        <v>0.06785333515930379</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3548163526301116</v>
+        <v>0.3806497397478641</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2818611611901434</v>
+        <v>0.2754322686734528</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03213188869594864</v>
+        <v>0.05020989050393612</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02662515530116525</v>
+        <v>0.01076159449870368</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007682254065646451</v>
+        <v>0.06542005990600457</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01222140753093729</v>
+        <v>0.00749735994062353</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0213712275935926</v>
+        <v>0.06524134501892245</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01094632101703309</v>
+        <v>0.03808521385093118</v>
       </c>
       <c r="L8" t="n">
-        <v>7.544202155952756e-05</v>
+        <v>0.008810904642899834</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05410890477257509</v>
+        <v>0.01773467388164769</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0339337089488161</v>
+        <v>0.003544529652153892</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05271931496525054</v>
+        <v>0.01476137638092655</v>
       </c>
       <c r="P8" t="n">
-        <v>0.08669810487818208</v>
+        <v>0.0900350584975428</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0711256687334291</v>
+        <v>0.08491250785085802</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03337758144888709</v>
+        <v>0.0451457807678642</v>
       </c>
       <c r="S8" t="n">
-        <v>0.064733510324484</v>
+        <v>0.0552417341931021</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04906047465203506</v>
+        <v>0.06295707286557377</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01188159955599035</v>
+        <v>0.03489690028972395</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03503576839366585</v>
+        <v>0.02627180969265723</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06682316963715289</v>
+        <v>0.08251501853503702</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0719797763324856</v>
+        <v>0.05882556776192735</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.06942981565273637</v>
+        <v>0.07897004645393203</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.06906817269532846</v>
+        <v>0.04397735555942111</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.03055547871692159</v>
+        <v>0.004003085324595557</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.08841525406617694</v>
+        <v>0.05018111393101547</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0833034705638494</v>
+        <v>0.1118397479653579</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.34523472661142</v>
+        <v>0.328866461608202</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02977887648236997</v>
+        <v>0.03309322395481285</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02407506087503095</v>
+        <v>0.06818519402542098</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0373554365321155</v>
+        <v>0.1256156386761516</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01214854991338711</v>
+        <v>0.001513957523386262</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09785818579084433</v>
+        <v>0.01337479943561968</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03731367994200852</v>
+        <v>0.02266773914906965</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1025887982707559</v>
+        <v>0.02999899469877758</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04463665628725579</v>
+        <v>0.02324268075751794</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1009884534076785</v>
+        <v>0.02783957406151477</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04496033487099629</v>
+        <v>0.07349897158517067</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05806339133706018</v>
+        <v>0.007691868827968302</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01165941539875305</v>
+        <v>0.02148924926463168</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09041539865451292</v>
+        <v>0.08193936298818334</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01028475375633551</v>
+        <v>0.03966599523244316</v>
       </c>
       <c r="T9" t="n">
-        <v>0.07098317103456635</v>
+        <v>0.01446245075373954</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05743809441311836</v>
+        <v>0.06763361149082345</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1028295566862276</v>
+        <v>0.10157990102829</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01978547319246036</v>
+        <v>0.03228752971624171</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01531334515941103</v>
+        <v>0.02337699413378972</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001086455615857679</v>
+        <v>0.04014664220759508</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01913525412168135</v>
+        <v>0.01463103727918189</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.00439864984828356</v>
+        <v>0.02225961941251632</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.006903008409288923</v>
+        <v>0.1138049637971539</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.177561989597881</v>
+        <v>0.2124975058568356</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2039797721715115</v>
+        <v>0.1995869759083696</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02936080283652909</v>
+        <v>0.04497114448171595</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0749381475625963</v>
+        <v>0.00570235996201277</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01074860456052846</v>
+        <v>0.001658441638658937</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02172632952321145</v>
+        <v>0.07725167016881937</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01514530178035049</v>
+        <v>0.0129098461608881</v>
       </c>
       <c r="K10" t="n">
-        <v>0.004795012061332829</v>
+        <v>0.008050495444435353</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01830411756498973</v>
+        <v>0.007672088166379158</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05572029988987177</v>
+        <v>0.01119152396077797</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01272398013231747</v>
+        <v>0.0403336579001077</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08304517776256033</v>
+        <v>0.09233199679202977</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07780515435780802</v>
+        <v>0.07794039376663013</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.07963232953119907</v>
+        <v>0.09630899555292699</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03753791716799505</v>
+        <v>0.06098497041948964</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09377200082358896</v>
+        <v>0.04726985617365051</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02191884813654854</v>
+        <v>0.05684907152554949</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04374520931572858</v>
+        <v>0.04892395716709633</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01733997335713584</v>
+        <v>0.0185507197573601</v>
       </c>
       <c r="W10" t="n">
-        <v>0.06881632933381442</v>
+        <v>0.06582082232562535</v>
       </c>
       <c r="X10" t="n">
-        <v>0.09023092775663563</v>
+        <v>0.03593026709045201</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02429409688863647</v>
+        <v>0.1047338337326503</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.04143608854813619</v>
+        <v>0.06833172151594315</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.05212119075823074</v>
+        <v>0.001413685994460151</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02484216035025462</v>
+        <v>0.01486848030234061</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.1037119591063422</v>
+        <v>-0.1360603570835038</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3171072325720217</v>
+        <v>0.2658819263298272</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04455824375476708</v>
+        <v>0.02110093839016003</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009992613527812326</v>
+        <v>0.05193231228679789</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02779170879283355</v>
+        <v>0.01876034943506518</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03787127575278981</v>
+        <v>0.08618404272721612</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07406735197493848</v>
+        <v>0.06136689318855151</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09083850827043154</v>
+        <v>0.05811055423836554</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08128661693030538</v>
+        <v>0.08313438463941066</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01415836496400778</v>
+        <v>0.02117471170370024</v>
       </c>
       <c r="N11" t="n">
-        <v>0.007733390064839489</v>
+        <v>0.005660487785950786</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02565815069464686</v>
+        <v>0.02069666735379046</v>
       </c>
       <c r="P11" t="n">
-        <v>0.006913441568421743</v>
+        <v>0.03443355935855168</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004962171762158278</v>
+        <v>0.0192187240761513</v>
       </c>
       <c r="R11" t="n">
-        <v>0.08587585658110218</v>
+        <v>0.08200204725322884</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08746651500023295</v>
+        <v>0.08511803481774387</v>
       </c>
       <c r="T11" t="n">
-        <v>0.052446903745419</v>
+        <v>0.001451533244907652</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01728164175051966</v>
+        <v>0.02804932224012273</v>
       </c>
       <c r="V11" t="n">
-        <v>0.08707189087088121</v>
+        <v>0.04974884960583792</v>
       </c>
       <c r="W11" t="n">
-        <v>0.08250219513851602</v>
+        <v>0.03573578770608314</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0374503832843332</v>
+        <v>0.04807672007362823</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.007641451293891928</v>
+        <v>0.003164098880467866</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.07558304605605147</v>
+        <v>0.0743633690294051</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.008531726285899443</v>
+        <v>0.06338923176817143</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.03231655193520051</v>
+        <v>0.04712738019669176</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.08642721760688855</v>
+        <v>-0.09776905627177691</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1768942291116572</v>
+        <v>0.1782487418547299</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09741632427948822</v>
+        <v>0.06629437569466372</v>
       </c>
       <c r="G12" t="n">
-        <v>0.010252801741787</v>
+        <v>0.03736229539823821</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0107976604610533</v>
+        <v>0.02297752038496893</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03152952780012561</v>
+        <v>0.07552496259456651</v>
       </c>
       <c r="J12" t="n">
-        <v>0.006514849140027178</v>
+        <v>0.05431114910513633</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02743944375721918</v>
+        <v>0.001007323792604933</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002413260006574236</v>
+        <v>0.006308591368124649</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1119033402661869</v>
+        <v>0.05619838600705237</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05358878276892401</v>
+        <v>0.005789958217859215</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06717769314485278</v>
+        <v>0.01216297434560368</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06204467540638052</v>
+        <v>0.06568541587702358</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.004081862476523104</v>
+        <v>0.05563479800893319</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08964530058716977</v>
+        <v>0.06834745056475146</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07078140407949612</v>
+        <v>0.08551760658226033</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0008313344900295615</v>
+        <v>0.002619239519764308</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07515804039198962</v>
+        <v>0.09568016684313675</v>
       </c>
       <c r="V12" t="n">
-        <v>0.05663973165381379</v>
+        <v>0.035972465307122</v>
       </c>
       <c r="W12" t="n">
-        <v>0.09235352135838354</v>
+        <v>0.06591817754478065</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0114928856584921</v>
+        <v>0.04281505742799673</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0407495659800859</v>
+        <v>0.01865547839176708</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.04092310142949657</v>
+        <v>0.03790351875405673</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.003408202406751833</v>
+        <v>0.06700371270999307</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.03285669071514925</v>
+        <v>0.02030937555959534</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1801412192738205</v>
+        <v>0.1747859421836568</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1887582154975961</v>
+        <v>0.1951647704627166</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01291398893524342</v>
+        <v>0.08872465811811554</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0603339555893869</v>
+        <v>0.07211847682132071</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01353432356574944</v>
+        <v>0.006125735897925098</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1327053707832083</v>
+        <v>0.02351893638074189</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02434414537562268</v>
+        <v>0.04402262030556651</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07939104374746941</v>
+        <v>0.06779981360730773</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02994405576889215</v>
+        <v>0.009653495635019568</v>
       </c>
       <c r="M13" t="n">
-        <v>0.007757822008607384</v>
+        <v>0.06248711109064597</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01373446249804279</v>
+        <v>0.01132482684442299</v>
       </c>
       <c r="O13" t="n">
-        <v>0.027001274269266</v>
+        <v>0.02267873899780632</v>
       </c>
       <c r="P13" t="n">
-        <v>0.07607428857788642</v>
+        <v>0.02210632503302095</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0006900790052686704</v>
+        <v>0.02517937239101693</v>
       </c>
       <c r="R13" t="n">
-        <v>0.07972427271580787</v>
+        <v>0.08017808470676169</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1212202409870506</v>
+        <v>0.03239707471799132</v>
       </c>
       <c r="T13" t="n">
-        <v>0.002834170877210562</v>
+        <v>0.01573727754001465</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09610664952673706</v>
+        <v>0.02091267496206568</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02591795264001685</v>
+        <v>0.02239940838781021</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08538509210371496</v>
+        <v>0.09803101987590056</v>
       </c>
       <c r="X13" t="n">
-        <v>0.003046554545970559</v>
+        <v>0.09170391222562904</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.03364447314598722</v>
+        <v>0.01726895874046934</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.006248243580533633</v>
+        <v>0.06750779558603319</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.002561683199006662</v>
+        <v>0.001037826227929706</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.06488585655332081</v>
+        <v>0.09708585590648423</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2332456983636747</v>
+        <v>0.2460904436293652</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1961421768551362</v>
+        <v>0.1968835049137431</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01903166153022687</v>
+        <v>0.02575346873932089</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04952101972263453</v>
+        <v>0.01776435999130081</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07630010208356475</v>
+        <v>0.004834586550744685</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003746615847933997</v>
+        <v>0.01696862537998125</v>
       </c>
       <c r="J14" t="n">
-        <v>0.008424446129797021</v>
+        <v>0.008654428943834542</v>
       </c>
       <c r="K14" t="n">
-        <v>0.007329810366525485</v>
+        <v>0.00325728040808045</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02257920800730802</v>
+        <v>0.06841652460572861</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05870377826997389</v>
+        <v>0.04924589396608372</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01762757400383793</v>
+        <v>0.01320887111389647</v>
       </c>
       <c r="O14" t="n">
-        <v>0.007869561886236222</v>
+        <v>0.02341787810333166</v>
       </c>
       <c r="P14" t="n">
-        <v>0.08345584071896325</v>
+        <v>0.1397194583636224</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02801509108049283</v>
+        <v>0.02180989121870448</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07434144903146694</v>
+        <v>0.04080985656272204</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06194014647298623</v>
+        <v>0.06280508306611002</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02846252002267468</v>
+        <v>0.01470673807805523</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03164379368924054</v>
+        <v>0.06379054594170898</v>
       </c>
       <c r="V14" t="n">
-        <v>0.05841153220397938</v>
+        <v>0.0447443956129203</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07770822778621012</v>
+        <v>0.07445888411980295</v>
       </c>
       <c r="X14" t="n">
-        <v>0.04406258149040724</v>
+        <v>0.08173877106290549</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.06301704272226889</v>
+        <v>0.05007080990926052</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.08549937277120809</v>
+        <v>0.04654595315425739</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.07887695665633736</v>
+        <v>0.1173175674374726</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0134316675057258</v>
+        <v>0.009960127670154487</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1527425894705368</v>
+        <v>0.2087152063909201</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.2312789564512347</v>
+        <v>0.2276709378101227</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01798894753145045</v>
+        <v>0.04716552026316223</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1301089112982224</v>
+        <v>0.05560122375531032</v>
       </c>
       <c r="H15" t="n">
-        <v>0.008349041606647758</v>
+        <v>0.001225051826006431</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05014838143217694</v>
+        <v>0.008896881961401292</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02980830988266765</v>
+        <v>0.0490219280438576</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06749936833689782</v>
+        <v>0.1056068706297344</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05145864244053159</v>
+        <v>0.02387106262679265</v>
       </c>
       <c r="M15" t="n">
-        <v>0.000602137566940765</v>
+        <v>0.0224599591905697</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01761200221877525</v>
+        <v>0.03149326926931616</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001761679697541086</v>
+        <v>0.03542524459684001</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01369540642013383</v>
+        <v>0.03452212200286377</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.05917542748628452</v>
+        <v>0.03876219246069999</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01478018683557785</v>
+        <v>0.01682482856433263</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1027605699456396</v>
+        <v>0.09330203367725939</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02700862448800736</v>
+        <v>0.06950897909802531</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01781423564432644</v>
+        <v>0.06152054037516048</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0005534941762511943</v>
+        <v>0.009341520969568393</v>
       </c>
       <c r="W15" t="n">
-        <v>0.07838995020664705</v>
+        <v>0.0987199284380727</v>
       </c>
       <c r="X15" t="n">
-        <v>0.09146425346948051</v>
+        <v>0.06871546984957309</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.01877343542007766</v>
+        <v>0.008824943086238438</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.112566799382466</v>
+        <v>0.0616756933994248</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.04636180989890792</v>
+        <v>0.005753207495692275</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0413183846143484</v>
+        <v>0.05176152842009811</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1916494931764391</v>
+        <v>0.2301319581552699</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1451046123144595</v>
+        <v>0.1508939338596194</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01307457271529358</v>
+        <v>0.009913958246563846</v>
       </c>
       <c r="G16" t="n">
-        <v>0.007283820457854164</v>
+        <v>0.01567233505342916</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0298633055241974</v>
+        <v>0.06185366016660827</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03735072517545399</v>
+        <v>0.043757483462983</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001626789033420792</v>
+        <v>0.0005520622308409783</v>
       </c>
       <c r="K16" t="n">
-        <v>0.009512125171923465</v>
+        <v>0.003580119599599482</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02909253614342293</v>
+        <v>0.01053308274284448</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0006792297326754464</v>
+        <v>0.06174180204707665</v>
       </c>
       <c r="N16" t="n">
-        <v>0.005761539793381992</v>
+        <v>0.003514626113780392</v>
       </c>
       <c r="O16" t="n">
-        <v>0.087066081836512</v>
+        <v>0.05594720459973325</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02532309073799676</v>
+        <v>0.05204887398188603</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1000980600270395</v>
+        <v>0.05502982773641853</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1111061211040946</v>
+        <v>0.06089648984961207</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1013686015967386</v>
+        <v>0.07728625066250384</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03014465896504093</v>
+        <v>0.06185910565438173</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02111131142033161</v>
+        <v>0.02865584922913821</v>
       </c>
       <c r="V16" t="n">
-        <v>0.07140138621637561</v>
+        <v>0.08324472592716053</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0152963885557999</v>
+        <v>0.03311551990524757</v>
       </c>
       <c r="X16" t="n">
-        <v>0.03724673762383467</v>
+        <v>0.07622655899611053</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.09306297129063705</v>
+        <v>0.08422034702967876</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0167337964595676</v>
+        <v>0.03023416710956689</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.1118862585834471</v>
+        <v>0.0684020837515016</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.04390989183496005</v>
+        <v>0.02171386590333433</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.05972416029693114</v>
+        <v>0.05385407473209116</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1769251535540582</v>
+        <v>0.1751616879095748</v>
       </c>
       <c r="F17" t="n">
-        <v>0.005230769314445889</v>
+        <v>0.08812921307371487</v>
       </c>
       <c r="G17" t="n">
-        <v>0.005941127137009519</v>
+        <v>0.008900109961382794</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07511009454688858</v>
+        <v>0.04054789758249965</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09343767907873242</v>
+        <v>0.1039859367731106</v>
       </c>
       <c r="J17" t="n">
-        <v>0.004214490268163141</v>
+        <v>0.02500987276652019</v>
       </c>
       <c r="K17" t="n">
-        <v>0.09172196741650013</v>
+        <v>0.08343112196357423</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008094984631568674</v>
+        <v>0.002991460473730713</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01355413869148055</v>
+        <v>0.006817365956790973</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001397289502855861</v>
+        <v>0.004292980122117508</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06743686474366875</v>
+        <v>0.06022326195082902</v>
       </c>
       <c r="P17" t="n">
-        <v>0.08882839792706078</v>
+        <v>0.07840644277804278</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01196883211152475</v>
+        <v>0.01639535619947816</v>
       </c>
       <c r="R17" t="n">
-        <v>0.03203584209179404</v>
+        <v>0.05972850845299551</v>
       </c>
       <c r="S17" t="n">
-        <v>0.04170694670552682</v>
+        <v>0.06211390727499772</v>
       </c>
       <c r="T17" t="n">
-        <v>0.03321648129273526</v>
+        <v>0.04935302873687043</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04719498358117569</v>
+        <v>0.07331382163989403</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0551525412325736</v>
+        <v>0.05733019204145748</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05354218844963373</v>
+        <v>0.001470150236009554</v>
       </c>
       <c r="X17" t="n">
-        <v>0.06924504058414198</v>
+        <v>0.04980504100092633</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0077993282644157</v>
+        <v>0.01521934039361086</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.03228852781169833</v>
+        <v>0.08251812288627468</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.08717043188816073</v>
+        <v>0.01884054833372765</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.07371105272824489</v>
+        <v>0.01117631940144424</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.05342036810944784</v>
+        <v>0.0249146863594033</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1402975605477283</v>
+        <v>0.1392449990954358</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04797117450335247</v>
+        <v>0.07343929170844259</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05495945633860446</v>
+        <v>0.09994951471045782</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001163962072341451</v>
+        <v>0.07598413914229203</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01051691524576661</v>
+        <v>0.01689753372343676</v>
       </c>
       <c r="J18" t="n">
-        <v>0.03956828938125578</v>
+        <v>0.004222098452751911</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01873863866834043</v>
+        <v>0.008468075224113081</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03071597675463326</v>
+        <v>0.07609617034158155</v>
       </c>
       <c r="M18" t="n">
-        <v>0.09450933402573501</v>
+        <v>0.05503762517445804</v>
       </c>
       <c r="N18" t="n">
-        <v>0.03905694111997844</v>
+        <v>0.01530126138395826</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03180236152101394</v>
+        <v>0.1063211423438025</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03233928595389302</v>
+        <v>0.01660516418327708</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04488020657016378</v>
+        <v>0.03332502381897402</v>
       </c>
       <c r="R18" t="n">
-        <v>0.08306984348538325</v>
+        <v>0.02694948904801307</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07014683526541562</v>
+        <v>0.08794025341471126</v>
       </c>
       <c r="T18" t="n">
-        <v>0.01533802184040034</v>
+        <v>0.03346922510565462</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09434534118365458</v>
+        <v>0.1094467325577263</v>
       </c>
       <c r="V18" t="n">
-        <v>0.02416982930822254</v>
+        <v>0.02607333373012662</v>
       </c>
       <c r="W18" t="n">
-        <v>0.03754154616744373</v>
+        <v>0.003977550191431476</v>
       </c>
       <c r="X18" t="n">
-        <v>0.04668153619264493</v>
+        <v>0.04402416027188673</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.009381031646392169</v>
+        <v>0.009572983385658655</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0752844774205869</v>
+        <v>0.009698853504425106</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.07742108108149004</v>
+        <v>0.05790699032872509</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.02039791425328721</v>
+        <v>0.009293388254095567</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1480126827005862</v>
+        <v>0.1426927472281291</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1690124959773872</v>
+        <v>0.1615107261554879</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02052121309846881</v>
+        <v>0.005927556220208711</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07011319838983615</v>
+        <v>0.07708718713305344</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03987724506675014</v>
+        <v>0.0348997632254314</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002287911929561261</v>
+        <v>0.01460284432187313</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03840439906871712</v>
+        <v>0.08029031843781727</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02957284241850392</v>
+        <v>0.01756726351169738</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003303908852571275</v>
+        <v>0.01065418486445321</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02941067463830301</v>
+        <v>0.09397893096427942</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01825006551064687</v>
+        <v>0.01479925047606872</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001887739472771657</v>
+        <v>0.0667039069488622</v>
       </c>
       <c r="P19" t="n">
-        <v>0.03099110623828485</v>
+        <v>0.05521597315853867</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0217167215574691</v>
+        <v>0.03553685479360789</v>
       </c>
       <c r="R19" t="n">
-        <v>0.04163130823526164</v>
+        <v>0.09227944181570284</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1080334176188314</v>
+        <v>0.0841988114781453</v>
       </c>
       <c r="T19" t="n">
-        <v>0.09233106119754869</v>
+        <v>0.04106959402809884</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09550951794649745</v>
+        <v>0.01213674095598608</v>
       </c>
       <c r="V19" t="n">
-        <v>0.09332802055712965</v>
+        <v>0.09103948244165953</v>
       </c>
       <c r="W19" t="n">
-        <v>0.09315695202350129</v>
+        <v>0.008055676244432314</v>
       </c>
       <c r="X19" t="n">
-        <v>0.09547217658905648</v>
+        <v>0.01937981124199007</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.007914248626136169</v>
+        <v>0.01938908707699633</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.03772625796486265</v>
+        <v>0.08602031583248249</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02528607412907676</v>
+        <v>0.02136847705182916</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.003273938870213698</v>
+        <v>0.01779852777678547</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1997423367860489</v>
+        <v>0.1659454741328804</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1557370370993133</v>
+        <v>0.1631220651762634</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03278226612742417</v>
+        <v>0.07108293892870568</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01684046613379551</v>
+        <v>0.07115160117350296</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00191678229895074</v>
+        <v>0.004046120960388117</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03427305032240819</v>
+        <v>0.002581090296978182</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01093593270064262</v>
+        <v>0.03859795263708409</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0002338119830844895</v>
+        <v>0.08532554532430954</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05253843851973137</v>
+        <v>0.004430870555550382</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08270123324992613</v>
+        <v>0.03427823956863327</v>
       </c>
       <c r="N20" t="n">
-        <v>0.006148419366178237</v>
+        <v>0.0007492297009154702</v>
       </c>
       <c r="O20" t="n">
-        <v>0.06825512480134924</v>
+        <v>0.08432599809929918</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01070209720471266</v>
+        <v>0.004150759261338775</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.04470448416040124</v>
+        <v>0.05193197825570856</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05539970889447545</v>
+        <v>0.09866492788773072</v>
       </c>
       <c r="S20" t="n">
-        <v>0.09172551171540928</v>
+        <v>0.05189351084744363</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0447127888090795</v>
+        <v>0.05495686118244651</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0854345593767025</v>
+        <v>0.07284523870491336</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1016281776391384</v>
+        <v>0.009028731207401644</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02555720814685498</v>
+        <v>0.02887382194912951</v>
       </c>
       <c r="X20" t="n">
-        <v>0.09320683988447652</v>
+        <v>0.060634004308566</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.03155084192558746</v>
+        <v>0.007667215442699918</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.08363686819383033</v>
+        <v>0.05906768189082648</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.02088282926583137</v>
+        <v>0.09097147436644433</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.004232559280009757</v>
+        <v>0.01274420744998367</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1078357517350804</v>
+        <v>0.1167005661561528</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1751023135235017</v>
+        <v>0.1719022174254357</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1266268559434072</v>
+        <v>0.08019492289754587</v>
       </c>
       <c r="G21" t="n">
-        <v>0.007820073280436624</v>
+        <v>0.01481238971820796</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03361175925378825</v>
+        <v>0.08712578539676313</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01249697277505132</v>
+        <v>0.0129006603684041</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04354655494951744</v>
+        <v>0.005654617527904255</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1136536573323767</v>
+        <v>0.03821299768823792</v>
       </c>
       <c r="L21" t="n">
-        <v>0.006314849720114833</v>
+        <v>0.01151750742874933</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06368520072693373</v>
+        <v>0.03090131124283123</v>
       </c>
       <c r="N21" t="n">
-        <v>0.07619542995252045</v>
+        <v>0.0002387951842016465</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03375990191683902</v>
+        <v>0.03827521811559106</v>
       </c>
       <c r="P21" t="n">
-        <v>0.002882878241163603</v>
+        <v>0.07572860130864888</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.008422169040075467</v>
+        <v>0.0006513613322093654</v>
       </c>
       <c r="R21" t="n">
-        <v>0.05520470933524145</v>
+        <v>0.06820267577500727</v>
       </c>
       <c r="S21" t="n">
-        <v>0.03090498982138438</v>
+        <v>0.01597254654087346</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1318577942894237</v>
+        <v>0.07200656260606055</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04943472292414858</v>
+        <v>0.07709460000119167</v>
       </c>
       <c r="V21" t="n">
-        <v>0.09705668002863033</v>
+        <v>0.09617148737107878</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0536822967694891</v>
+        <v>0.01122654080802173</v>
       </c>
       <c r="X21" t="n">
-        <v>0.009801695903171464</v>
+        <v>0.08578184650879345</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.03528053378694373</v>
+        <v>0.002590232169072547</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0009798592130280405</v>
+        <v>0.09539383890556725</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.003597547224628308</v>
+        <v>0.06841338266502599</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.00318286757168619</v>
+        <v>0.0109321184400125</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1181886972007573</v>
+        <v>0.1602754673295104</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1809059447021852</v>
+        <v>0.182913941905408</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0624858011243027</v>
+        <v>0.02059962018070194</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02597025957936832</v>
+        <v>0.02052866975828248</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01338204659529958</v>
+        <v>0.005549108948354165</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05950918400349604</v>
+        <v>0.02345864819482774</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00426390925623198</v>
+        <v>0.03075674527661727</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03784535467114323</v>
+        <v>0.03466397516908221</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05785472831699048</v>
+        <v>0.03060458817034006</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04410930973655422</v>
+        <v>0.04186333935390678</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0081084997646891</v>
+        <v>0.007324966733198676</v>
       </c>
       <c r="O22" t="n">
-        <v>0.07419595683672187</v>
+        <v>0.09484029262219762</v>
       </c>
       <c r="P22" t="n">
-        <v>0.06833929841705517</v>
+        <v>0.01666242474347571</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.04757139402456896</v>
+        <v>0.1014766599005577</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06869672281932071</v>
+        <v>0.09649446924385847</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05331975964612064</v>
+        <v>0.07881902881293071</v>
       </c>
       <c r="T22" t="n">
-        <v>0.001934728579258816</v>
+        <v>0.01491677433510688</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05025744130145026</v>
+        <v>0.08398965978765319</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0008399427810251302</v>
+        <v>0.005552836035364849</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07527865830175168</v>
+        <v>0.03961401994198633</v>
       </c>
       <c r="X22" t="n">
-        <v>0.08542169637394251</v>
+        <v>0.07794803741666252</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.07107997302616931</v>
+        <v>0.05712414318814187</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.04725436442820001</v>
+        <v>0.05502666538622718</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.03009839949549689</v>
+        <v>0.05808541715478405</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.01218257092084233</v>
+        <v>0.004099909645741542</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.07252651408901963</v>
+        <v>0.08632827573073851</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2530567543464396</v>
+        <v>0.2154790261193912</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1053688166262887</v>
+        <v>0.1221437454601991</v>
       </c>
       <c r="G23" t="n">
-        <v>0.003876722406663934</v>
+        <v>0.03298767876053403</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0508280008904854</v>
+        <v>0.05088179877081679</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05494796391100456</v>
+        <v>0.01955742155326475</v>
       </c>
       <c r="J23" t="n">
-        <v>0.002896040610333466</v>
+        <v>0.006602372372031304</v>
       </c>
       <c r="K23" t="n">
-        <v>0.005854032438317737</v>
+        <v>0.0550078463406573</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0008504440890196596</v>
+        <v>0.0007673847890453247</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03512918930026333</v>
+        <v>0.0230016252096466</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01891728734750483</v>
+        <v>0.03271285685348916</v>
       </c>
       <c r="O23" t="n">
-        <v>0.05763197967808963</v>
+        <v>0.0734898328923876</v>
       </c>
       <c r="P23" t="n">
-        <v>0.05034246955346283</v>
+        <v>0.06321228228890995</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.09293455624726001</v>
+        <v>0.06329602925133855</v>
       </c>
       <c r="R23" t="n">
-        <v>0.05812814385704935</v>
+        <v>0.06118628582832578</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1085577375103214</v>
+        <v>0.1102584889300583</v>
       </c>
       <c r="T23" t="n">
-        <v>0.05054452030119418</v>
+        <v>0.0001902911821596279</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02219267046519746</v>
+        <v>0.008180979861136781</v>
       </c>
       <c r="V23" t="n">
-        <v>0.08031553758936383</v>
+        <v>0.04696034640395259</v>
       </c>
       <c r="W23" t="n">
-        <v>0.06989188285687974</v>
+        <v>0.01858462628033354</v>
       </c>
       <c r="X23" t="n">
-        <v>0.01498194017940126</v>
+        <v>0.07901469124770504</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.01434584868117946</v>
+        <v>0.002962197406932823</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.02402344528509114</v>
+        <v>0.02484432278156671</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0486296873889228</v>
+        <v>0.09091696046238232</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.02881108278670549</v>
+        <v>0.01323993507312587</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.07714320956034004</v>
+        <v>0.07187625681153532</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1379677438335684</v>
+        <v>0.1424942247610699</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00167638707329119</v>
+        <v>0.006346303956980769</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0871824427647965</v>
+        <v>0.02347925229370966</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04122750097099193</v>
+        <v>0.01017924471394991</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05664771283881457</v>
+        <v>0.02578852451764243</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04834249324009789</v>
+        <v>0.02256020832619171</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04752006805745813</v>
+        <v>0.05546748212806991</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01278022485060818</v>
+        <v>0.02790934482532712</v>
       </c>
       <c r="M24" t="n">
-        <v>0.08119920412619558</v>
+        <v>0.02947669378068089</v>
       </c>
       <c r="N24" t="n">
-        <v>0.00124629460840879</v>
+        <v>0.01418257598408332</v>
       </c>
       <c r="O24" t="n">
-        <v>0.007274240968167534</v>
+        <v>0.02515182186538572</v>
       </c>
       <c r="P24" t="n">
-        <v>0.07885762525233857</v>
+        <v>0.09527164689757099</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01093427710226053</v>
+        <v>0.03962732655546013</v>
       </c>
       <c r="R24" t="n">
-        <v>0.06026734417107941</v>
+        <v>0.0520631925484329</v>
       </c>
       <c r="S24" t="n">
-        <v>0.08790119295420606</v>
+        <v>0.07633336485057121</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01843661932748811</v>
+        <v>0.05006809888491982</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08853612152224216</v>
+        <v>0.09184673728686327</v>
       </c>
       <c r="V24" t="n">
-        <v>0.004875648634729169</v>
+        <v>0.0149676891496804</v>
       </c>
       <c r="W24" t="n">
-        <v>0.08319520727280498</v>
+        <v>0.08058829405800189</v>
       </c>
       <c r="X24" t="n">
-        <v>0.02689753277778623</v>
+        <v>0.08620963590409407</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.07977188559467301</v>
+        <v>0.054233972274014</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.03601744543366681</v>
+        <v>0.02093246613113012</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.02874301505406692</v>
+        <v>0.03505471285730342</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01046951540382761</v>
+        <v>0.06226141020993622</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.1825005173525919</v>
+        <v>-0.1991847205090597</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1959638534423858</v>
+        <v>0.2012462405332147</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04295938766458463</v>
+        <v>0.05323514448439446</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02534396854187257</v>
+        <v>0.06025860590348021</v>
       </c>
       <c r="H25" t="n">
-        <v>0.002517747636532336</v>
+        <v>0.009683545398337535</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02130053753912813</v>
+        <v>0.05414354956985805</v>
       </c>
       <c r="J25" t="n">
-        <v>0.009706692521786783</v>
+        <v>0.01907101490678471</v>
       </c>
       <c r="K25" t="n">
-        <v>0.009229840993261122</v>
+        <v>0.04748691211145605</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01480467084411975</v>
+        <v>0.0005606167839208984</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1011772901122275</v>
+        <v>0.0868955479990615</v>
       </c>
       <c r="N25" t="n">
-        <v>0.04446031383067345</v>
+        <v>0.01475018331602862</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01750066690860134</v>
+        <v>0.07082704539252881</v>
       </c>
       <c r="P25" t="n">
-        <v>0.02817857850925722</v>
+        <v>0.006880371597478572</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.07430633416685034</v>
+        <v>0.05618555607260019</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01759951395811057</v>
+        <v>0.09426172668838749</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01102181970155902</v>
+        <v>0.01147951301115777</v>
       </c>
       <c r="T25" t="n">
-        <v>0.08786776567310811</v>
+        <v>0.04085736021391836</v>
       </c>
       <c r="U25" t="n">
-        <v>0.005974651266939485</v>
+        <v>0.00240788970888625</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1069856823295386</v>
+        <v>0.1039810101048621</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0087046215380907</v>
+        <v>0.05831548326104693</v>
       </c>
       <c r="X25" t="n">
-        <v>0.1019541983723877</v>
+        <v>0.01869164110017199</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1028537815066116</v>
+        <v>0.09693173485343391</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.05308050348614562</v>
+        <v>0.02250345108864759</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.005563224501201369</v>
+        <v>0.002855840291666252</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1069082083974121</v>
+        <v>0.0677362561418918</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.1623743704210896</v>
+        <v>-0.2095999551699858</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1074308648389812</v>
+        <v>0.1095109924359825</v>
       </c>
       <c r="F26" t="n">
-        <v>0.000845554341043292</v>
+        <v>0.02161601097771336</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0521249489350015</v>
+        <v>0.01013859272511623</v>
       </c>
       <c r="H26" t="n">
-        <v>0.05533979793526336</v>
+        <v>0.04871763331920281</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01281329737718235</v>
+        <v>0.01504683041714112</v>
       </c>
       <c r="J26" t="n">
-        <v>0.06261195523586677</v>
+        <v>0.038550717278646</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01289236272737404</v>
+        <v>0.03216474150444124</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01043652954277984</v>
+        <v>0.01550261609057917</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06980834920245492</v>
+        <v>0.08127000083070891</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02541897146253008</v>
+        <v>0.0170249707253186</v>
       </c>
       <c r="O26" t="n">
-        <v>0.07405450423172674</v>
+        <v>0.05257116923623067</v>
       </c>
       <c r="P26" t="n">
-        <v>0.08108219821040206</v>
+        <v>0.09878928739758995</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.04105611161574197</v>
+        <v>0.07999308432386452</v>
       </c>
       <c r="R26" t="n">
-        <v>0.03786912545047682</v>
+        <v>0.004421010060642399</v>
       </c>
       <c r="S26" t="n">
-        <v>0.03754908903822711</v>
+        <v>0.0009000557477330466</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01556684407172429</v>
+        <v>0.01671233690393943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06549724274272756</v>
+        <v>0.08577709136066625</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01030826771095054</v>
+        <v>0.06058329756379523</v>
       </c>
       <c r="W26" t="n">
-        <v>0.06669107243218347</v>
+        <v>0.09173352982109688</v>
       </c>
       <c r="X26" t="n">
-        <v>0.06919097979600682</v>
+        <v>0.08628245152767372</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.051424028524124</v>
+        <v>0.03445466327600401</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.03581421141037329</v>
+        <v>0.03087402572554626</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.06372976221359404</v>
+        <v>0.02881011861070322</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.04787479579224511</v>
+        <v>0.04806576457564705</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1685953868641593</v>
+        <v>0.1582152947984669</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1427902305085086</v>
+        <v>0.1533598034441801</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08276615621681935</v>
+        <v>0.1044122423243118</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06829573007532543</v>
+        <v>0.08676029110555032</v>
       </c>
       <c r="H27" t="n">
-        <v>0.006772898894169678</v>
+        <v>0.036524371983535</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05608772457155869</v>
+        <v>0.004261955278816528</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01510823425217888</v>
+        <v>0.04644983530928747</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06325512659364245</v>
+        <v>0.02193440476435805</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00714245101088307</v>
+        <v>0.007607779205566274</v>
       </c>
       <c r="M27" t="n">
-        <v>0.07137008968347978</v>
+        <v>0.06628160771339882</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0004920625054120933</v>
+        <v>0.008108840983189911</v>
       </c>
       <c r="O27" t="n">
-        <v>0.007243654073634333</v>
+        <v>0.03154661255219089</v>
       </c>
       <c r="P27" t="n">
-        <v>0.05160319660799965</v>
+        <v>0.03502943075597485</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.03815757875306967</v>
+        <v>0.08036815438881745</v>
       </c>
       <c r="R27" t="n">
-        <v>0.04701662358169655</v>
+        <v>0.002617506544345251</v>
       </c>
       <c r="S27" t="n">
-        <v>0.04414412334905105</v>
+        <v>0.05076787894172849</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01887162281357621</v>
+        <v>0.01196806829065922</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01327354994249743</v>
+        <v>0.01292188827159788</v>
       </c>
       <c r="V27" t="n">
-        <v>0.02882495311200169</v>
+        <v>0.06507280529372347</v>
       </c>
       <c r="W27" t="n">
-        <v>0.07602429252939723</v>
+        <v>0.06210700911223634</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0707677335725439</v>
+        <v>0.08317248003862686</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.08381303124607463</v>
+        <v>0.07831071000989213</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.08627169407557822</v>
+        <v>0.07717953326326037</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.02451293995440024</v>
+        <v>0.02438581256966166</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.03818453258500978</v>
+        <v>0.002210781299270854</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.2134751705909989</v>
+        <v>0.2213303484106095</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1464029258740434</v>
+        <v>0.1564712515916493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09009010832845371</v>
+        <v>0.02695842794903472</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03084888701222485</v>
+        <v>0.01228749564476266</v>
       </c>
       <c r="H28" t="n">
-        <v>0.08567668513056838</v>
+        <v>0.05599594158660829</v>
       </c>
       <c r="I28" t="n">
-        <v>0.008102359984408718</v>
+        <v>0.01355831071251148</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02726766689322086</v>
+        <v>0.06269633739364261</v>
       </c>
       <c r="K28" t="n">
-        <v>0.08944635239201343</v>
+        <v>0.04826204095145067</v>
       </c>
       <c r="L28" t="n">
-        <v>0.007941832815612873</v>
+        <v>0.0001890692729996527</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06714555704155739</v>
+        <v>0.08331289705852434</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0485749129802815</v>
+        <v>0.05748514243222245</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03323186742486021</v>
+        <v>0.02752921396311981</v>
       </c>
       <c r="P28" t="n">
-        <v>0.05546895916716644</v>
+        <v>0.0687917492893292</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.06967572351003012</v>
+        <v>0.09528484404286383</v>
       </c>
       <c r="R28" t="n">
-        <v>0.05268296766474716</v>
+        <v>0.02657639494664257</v>
       </c>
       <c r="S28" t="n">
-        <v>0.005441105294388886</v>
+        <v>0.03850902514390918</v>
       </c>
       <c r="T28" t="n">
-        <v>0.02499217073226087</v>
+        <v>0.04420111429745614</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08239311140850321</v>
+        <v>0.04632391075831727</v>
       </c>
       <c r="V28" t="n">
-        <v>0.03353866943632788</v>
+        <v>0.06901183693251874</v>
       </c>
       <c r="W28" t="n">
-        <v>0.07460958468496975</v>
+        <v>0.06768958077219424</v>
       </c>
       <c r="X28" t="n">
-        <v>0.02753237436047336</v>
+        <v>0.01389559498923305</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.001213923949762434</v>
+        <v>0.001753111206895069</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.03552698612850433</v>
+        <v>0.06916482353272259</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.01434142087386468</v>
+        <v>0.01120349024379688</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.03425677278579901</v>
+        <v>0.0593196468792446</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.02838027168101139</v>
+        <v>0.01760782440066697</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1713773352769029</v>
+        <v>0.1952480421056275</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09995183026370483</v>
+        <v>0.08031270647334525</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0222672913182391</v>
+        <v>0.03081455437536045</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09616918776609168</v>
+        <v>0.04054579161070586</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0005023555966089865</v>
+        <v>0.03426092828362336</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02177434594970696</v>
+        <v>0.01430343292670459</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0165839000335331</v>
+        <v>0.004701367324418319</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0005793189509240314</v>
+        <v>0.004613668648175336</v>
       </c>
       <c r="M29" t="n">
-        <v>0.07025455921960562</v>
+        <v>0.09108955733674026</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0951924609149188</v>
+        <v>0.07678520396404367</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0321182580630654</v>
+        <v>0.03513209874795249</v>
       </c>
       <c r="P29" t="n">
-        <v>0.06301122151083613</v>
+        <v>0.04448058079923198</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.04424601502200073</v>
+        <v>0.04688417029541959</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1123594535913755</v>
+        <v>0.02510498242655727</v>
       </c>
       <c r="S29" t="n">
-        <v>0.007698208288447417</v>
+        <v>0.01571053604086344</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02245252275496287</v>
+        <v>0.07304547719243087</v>
       </c>
       <c r="U29" t="n">
-        <v>0.00171105945188479</v>
+        <v>0.01526003622750251</v>
       </c>
       <c r="V29" t="n">
-        <v>0.004303278420631938</v>
+        <v>0.08728379698013092</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03834624115487334</v>
+        <v>0.02875359880303055</v>
       </c>
       <c r="X29" t="n">
-        <v>0.02250882847028441</v>
+        <v>0.09193380320184637</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.03384561495100072</v>
+        <v>0.02444980288871989</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.05374911972238855</v>
+        <v>0.08634988043708575</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.07240394510259227</v>
+        <v>0.02242115172128567</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.06797098348232274</v>
+        <v>0.02576287329482557</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.01701749376383031</v>
+        <v>0.01891004639548182</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1346249872143219</v>
+        <v>0.1313028629582964</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05064106873618957</v>
+        <v>0.07406137470830355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07017909838626722</v>
+        <v>0.0402225744201018</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05444557788461459</v>
+        <v>0.05340455082584336</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01330837725157444</v>
+        <v>0.001952446549871871</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04606830723528688</v>
+        <v>0.004308418875246565</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03494596083789411</v>
+        <v>0.01424692904383036</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01077168266309177</v>
+        <v>0.006850720592169251</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00696817925357652</v>
+        <v>0.006107406788322003</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07472649909905027</v>
+        <v>0.04373696677816528</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05027372857202793</v>
+        <v>0.07517941669557664</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0988845272815435</v>
+        <v>0.08266679519224736</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01101351641971573</v>
+        <v>0.05112155142748215</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05423718105340832</v>
+        <v>0.06359466721411682</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02626464189715581</v>
+        <v>0.04581856147833033</v>
       </c>
       <c r="T2" t="n">
-        <v>0.007373062950139952</v>
+        <v>0.009896141775978877</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06252854989710192</v>
+        <v>0.06381207787897238</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02233208037994316</v>
+        <v>0.03457198575239336</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08464551325185227</v>
+        <v>0.08094154221724684</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06289642934207974</v>
+        <v>0.08417752535158306</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02039971006589035</v>
+        <v>0.03475798544841582</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04153980717966425</v>
+        <v>0.06032299263277709</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.06696308937616059</v>
+        <v>0.03105468530657133</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02859341098577124</v>
+        <v>0.03719268304645401</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.08658538737642299</v>
+        <v>0.09769597576622248</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1528111068789463</v>
+        <v>0.160672157026476</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02596424638597058</v>
+        <v>0.0005266403808180743</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06189873257281119</v>
+        <v>0.07515881384420282</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06242490200703862</v>
+        <v>0.05573410197302511</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00560792879274469</v>
+        <v>0.002306846977788192</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07082806342140066</v>
+        <v>0.006627167975290451</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01261145886694525</v>
+        <v>0.003605842092612523</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01349363403550889</v>
+        <v>0.004684370604837433</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006129057111832504</v>
+        <v>0.02845346646034822</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03160182514581299</v>
+        <v>0.01909301023348296</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02983464518875486</v>
+        <v>0.04565675696017656</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0588445388823302</v>
+        <v>0.06063268369627971</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04084541814905505</v>
+        <v>0.06828278886969674</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02940934399475624</v>
+        <v>0.05675829543254206</v>
       </c>
       <c r="S3" t="n">
-        <v>0.007841943210163268</v>
+        <v>0.03418863404493986</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06110389948269578</v>
+        <v>0.01700639892054688</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07094731354207029</v>
+        <v>0.0818326901220498</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0580399439642896</v>
+        <v>0.1047487165461336</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0783264309168932</v>
+        <v>0.09148249123249559</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04938313053406202</v>
+        <v>0.07231615100987375</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.06943161035200843</v>
+        <v>0.01138998213159088</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.04112628898499278</v>
+        <v>0.02800343822029175</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02070189987973325</v>
+        <v>0.03670209985747619</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.09360374457812973</v>
+        <v>0.09480861241350085</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1003643442651757</v>
+        <v>0.09605050813595715</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1728516123251957</v>
+        <v>0.1710549569712762</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07124421415736068</v>
+        <v>0.03789369001454886</v>
       </c>
       <c r="G4" t="n">
-        <v>0.056709424823064</v>
+        <v>0.08958285443718686</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00357282470449149</v>
+        <v>0.001873482515284827</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05481452032795066</v>
+        <v>0.1189052108230686</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07527234995104616</v>
+        <v>0.008129970045619956</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01405822089165859</v>
+        <v>0.118025540649193</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01992596567070338</v>
+        <v>0.0122444163566762</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01816981863531944</v>
+        <v>0.07715030127924051</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06575079646731866</v>
+        <v>0.005188333750875745</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07740196828569834</v>
+        <v>0.03754287042737549</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01557589004371409</v>
+        <v>0.08002251269280186</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0003243291520911399</v>
+        <v>0.001320431161388591</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06867850936811951</v>
+        <v>0.07535162450807878</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0006704201363489084</v>
+        <v>0.0005672782702399273</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001379034467886735</v>
+        <v>0.004592783709585996</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03654271188107841</v>
+        <v>0.02769511584407925</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04755418297989138</v>
+        <v>0.001973961474414336</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06293890481051707</v>
+        <v>0.02781991519147763</v>
       </c>
       <c r="X4" t="n">
-        <v>0.07462574489499092</v>
+        <v>0.04742576570505751</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07186127874020523</v>
+        <v>0.0951708896677064</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.06299637514463581</v>
+        <v>0.02477685835404441</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.03343747859686132</v>
+        <v>0.05104038367784985</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.06649503586904798</v>
+        <v>0.0557058094442054</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.6362626895486008</v>
+        <v>-0.5892784171921228</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8586950802547249</v>
+        <v>0.7809851201164945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08136189100011419</v>
+        <v>0.01154357324241626</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05322206301264353</v>
+        <v>0.006544897004508977</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006188563962800838</v>
+        <v>0.06140300519639945</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004116140291031286</v>
+        <v>0.08872157826233812</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0114622908593105</v>
+        <v>0.007714061664760122</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07076820821344236</v>
+        <v>0.06215442843810596</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06193620203560029</v>
+        <v>0.02442255349714395</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02347423365062093</v>
+        <v>0.01000002406071629</v>
       </c>
       <c r="N5" t="n">
-        <v>0.003478680902676673</v>
+        <v>0.01821101604625384</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01530862459719201</v>
+        <v>0.01453834348291389</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05947633680851885</v>
+        <v>0.04650755604754165</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04734381810130141</v>
+        <v>0.05963061578997305</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07312044908805122</v>
+        <v>0.07952950174697815</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04450313920855094</v>
+        <v>0.08798499986604062</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09919768890187101</v>
+        <v>0.08961174401187927</v>
       </c>
       <c r="U5" t="n">
-        <v>0.006058607914214995</v>
+        <v>0.01228041629885765</v>
       </c>
       <c r="V5" t="n">
-        <v>0.009355667908267959</v>
+        <v>0.01263231252521421</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1024090012636608</v>
+        <v>0.01215043830150177</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06661243354747859</v>
+        <v>0.03826986095261441</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.008703329531111951</v>
+        <v>0.01642157257192539</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.04666719824866183</v>
+        <v>0.03545618762441946</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01349033751100618</v>
+        <v>0.1072882911181487</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.09174509344187162</v>
+        <v>0.09698302224934864</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.635638224653324</v>
+        <v>-0.6458596125124123</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2305987529891005</v>
+        <v>0.2335941744171122</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0737766532773327</v>
+        <v>0.06148196008394222</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01525687562415192</v>
+        <v>0.01000488263089794</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03091249821186144</v>
+        <v>0.03073023717349782</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06057704739967927</v>
+        <v>0.06322430477256219</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01437192089088579</v>
+        <v>0.04021851523200595</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01773914554218651</v>
+        <v>0.03027553751366145</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01693994593265558</v>
+        <v>0.01110687506068331</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01629467868630426</v>
+        <v>0.02538405810001283</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01735014241885713</v>
+        <v>0.0002668348759939255</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04886676720744107</v>
+        <v>0.0260138293731201</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0903438112549694</v>
+        <v>0.07903306209245071</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01339742723374264</v>
+        <v>0.06892972704961105</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08128221212573934</v>
+        <v>0.07408522816318037</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04385793457905855</v>
+        <v>0.05707075575103362</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00175105520969132</v>
+        <v>0.007698191083179351</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07262885963437871</v>
+        <v>0.06908855930639364</v>
       </c>
       <c r="V6" t="n">
-        <v>0.009827166261214399</v>
+        <v>0.0044083069803695</v>
       </c>
       <c r="W6" t="n">
-        <v>0.07791546009597368</v>
+        <v>0.03488245621053188</v>
       </c>
       <c r="X6" t="n">
-        <v>0.08392249985149174</v>
+        <v>0.07896511237042644</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.06649011142398578</v>
+        <v>0.07342488753774934</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.07837329119381921</v>
+        <v>0.07970231507419501</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.05480740620606037</v>
+        <v>0.01179994174396393</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01331708973851929</v>
+        <v>0.06220442182053747</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1713750758374028</v>
+        <v>0.1794482936002075</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3805227702506809</v>
+        <v>0.3394797280607661</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02590748616440311</v>
+        <v>0.07878638197122977</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06102416919909617</v>
+        <v>0.08130455070366591</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1210313511877179</v>
+        <v>0.0756705188708752</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03894547228986699</v>
+        <v>0.08332076948991268</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04496134734597992</v>
+        <v>0.07116852981857946</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001275469894583494</v>
+        <v>0.0227708745795536</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04205874608804631</v>
+        <v>0.01367560346635333</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0463163418142691</v>
+        <v>0.006915472196725669</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03054500632850686</v>
+        <v>0.00612972054795346</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001381757832778892</v>
+        <v>0.003146844989352152</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04295408685783123</v>
+        <v>0.01504024637735681</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07105428846589236</v>
+        <v>0.02548024533745069</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02419508389004905</v>
+        <v>0.04866010306516454</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0347272778977111</v>
+        <v>0.05322081955213785</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1200361519862386</v>
+        <v>0.1021790017165288</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02171921666954463</v>
+        <v>0.0003466350568374443</v>
       </c>
       <c r="V7" t="n">
-        <v>0.09976104564902236</v>
+        <v>0.09999492093251292</v>
       </c>
       <c r="W7" t="n">
-        <v>0.06613810518778955</v>
+        <v>0.07200031313455565</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0005977917300371818</v>
+        <v>0.01579692685914849</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0003332860518374052</v>
+        <v>0.05086660446213132</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01380815718142643</v>
+        <v>0.02439764916110238</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.02337502512806755</v>
+        <v>0.04611040086005901</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.06785333515930379</v>
+        <v>0.003016866850812923</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3806497397478641</v>
+        <v>0.3486035798085087</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2754322686734528</v>
+        <v>0.2809278341764095</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05020989050393612</v>
+        <v>0.0001424473091315425</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01076159449870368</v>
+        <v>0.009844051025948391</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06542005990600457</v>
+        <v>0.09850535391944439</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00749735994062353</v>
+        <v>0.008850177109970915</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06524134501892245</v>
+        <v>0.04488009069511541</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03808521385093118</v>
+        <v>0.02246761599902714</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008810904642899834</v>
+        <v>0.007532888682715152</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01773467388164769</v>
+        <v>0.02579963822139376</v>
       </c>
       <c r="N8" t="n">
-        <v>0.003544529652153892</v>
+        <v>0.01605589950170977</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01476137638092655</v>
+        <v>0.05968895973609493</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0900350584975428</v>
+        <v>0.08631564234478781</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.08491250785085802</v>
+        <v>0.00139128405927042</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0451457807678642</v>
+        <v>0.07993157062619186</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0552417341931021</v>
+        <v>0.02915716507891745</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06295707286557377</v>
+        <v>0.03707136153183936</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03489690028972395</v>
+        <v>0.04304980112820504</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02627180969265723</v>
+        <v>0.07749062630962741</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08251501853503702</v>
+        <v>0.08900402876936586</v>
       </c>
       <c r="X8" t="n">
-        <v>0.05882556776192735</v>
+        <v>0.05999811278583155</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.07897004645393203</v>
+        <v>0.08121522498370791</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.04397735555942111</v>
+        <v>0.08089177680195349</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.004003085324595557</v>
+        <v>0.0004322230639115443</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.05018111393101547</v>
+        <v>0.0402840603158388</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1118397479653579</v>
+        <v>0.1246453306811028</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.328866461608202</v>
+        <v>0.3144750857331738</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03309322395481285</v>
+        <v>0.007754411454484361</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06818519402542098</v>
+        <v>0.06776634689005231</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1256156386761516</v>
+        <v>0.05690346623600357</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001513957523386262</v>
+        <v>0.0001102005314411891</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01337479943561968</v>
+        <v>0.1144322638391577</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02266773914906965</v>
+        <v>0.00563891648734456</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02999899469877758</v>
+        <v>0.0296452301119365</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02324268075751794</v>
+        <v>0.009259682007621445</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02783957406151477</v>
+        <v>0.02070091051252897</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07349897158517067</v>
+        <v>0.05125795190062814</v>
       </c>
       <c r="P9" t="n">
-        <v>0.007691868827968302</v>
+        <v>0.0220618099563557</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02148924926463168</v>
+        <v>0.0271255429785873</v>
       </c>
       <c r="R9" t="n">
-        <v>0.08193936298818334</v>
+        <v>0.07647570048718796</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03966599523244316</v>
+        <v>0.02177620308704192</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01446245075373954</v>
+        <v>0.08182900606312148</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06763361149082345</v>
+        <v>0.04493678521016856</v>
       </c>
       <c r="V9" t="n">
-        <v>0.10157990102829</v>
+        <v>0.1096183569697272</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03228752971624171</v>
+        <v>0.05466512905546069</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02337699413378972</v>
+        <v>0.1067574320518444</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04014664220759508</v>
+        <v>0.03763071218098631</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01463103727918189</v>
+        <v>0.004322633143604538</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02225961941251632</v>
+        <v>0.04400158293893643</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1138049637971539</v>
+        <v>0.005329725905778632</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2124975058568356</v>
+        <v>0.1709887539645877</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1995869759083696</v>
+        <v>0.2088223327871105</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04497114448171595</v>
+        <v>0.02029586603866298</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00570235996201277</v>
+        <v>0.006462801037533146</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001658441638658937</v>
+        <v>0.01819330282432097</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07725167016881937</v>
+        <v>0.0565695688408711</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0129098461608881</v>
+        <v>0.007839199817319684</v>
       </c>
       <c r="K10" t="n">
-        <v>0.008050495444435353</v>
+        <v>0.03691339983402698</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007672088166379158</v>
+        <v>0.08311660983728154</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01119152396077797</v>
+        <v>0.02965047174662919</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0403336579001077</v>
+        <v>0.02794419328303147</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09233199679202977</v>
+        <v>0.04270159614440096</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07794039376663013</v>
+        <v>0.0955877017496657</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.09630899555292699</v>
+        <v>0.004524680882455535</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06098497041948964</v>
+        <v>0.07401424453112064</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04726985617365051</v>
+        <v>0.07246135714737782</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05684907152554949</v>
+        <v>0.01503783692018081</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04892395716709633</v>
+        <v>0.08779739609574166</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0185507197573601</v>
+        <v>0.01449143558744185</v>
       </c>
       <c r="W10" t="n">
-        <v>0.06582082232562535</v>
+        <v>0.09655410405290178</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03593026709045201</v>
+        <v>0.0008153719577185868</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1047338337326503</v>
+        <v>0.07272413274204656</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.06833172151594315</v>
+        <v>0.09375535769835414</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001413685994460151</v>
+        <v>0.01562802655881014</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01486848030234061</v>
+        <v>0.02692134467210685</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.1360603570835038</v>
+        <v>-0.08955367222847441</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2658819263298272</v>
+        <v>0.3055798056915279</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02110093839016003</v>
+        <v>0.04771778305060594</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05193231228679789</v>
+        <v>0.03018182418458259</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01876034943506518</v>
+        <v>0.03688192722376325</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08618404272721612</v>
+        <v>0.0838196586274188</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06136689318855151</v>
+        <v>0.06507012407843712</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05811055423836554</v>
+        <v>0.07091283211551838</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08313438463941066</v>
+        <v>0.05435485153783611</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02117471170370024</v>
+        <v>0.02861424340463284</v>
       </c>
       <c r="N11" t="n">
-        <v>0.005660487785950786</v>
+        <v>0.007376271185317517</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02069666735379046</v>
+        <v>0.0002153085265566579</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03443355935855168</v>
+        <v>0.01169948989694882</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0192187240761513</v>
+        <v>0.005845258942515677</v>
       </c>
       <c r="R11" t="n">
-        <v>0.08200204725322884</v>
+        <v>0.08116644621781245</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08511803481774387</v>
+        <v>0.08636626741615</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001451533244907652</v>
+        <v>0.03954255801380576</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02804932224012273</v>
+        <v>0.005508411972322905</v>
       </c>
       <c r="V11" t="n">
-        <v>0.04974884960583792</v>
+        <v>0.02854745032743871</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03573578770608314</v>
+        <v>0.03544186317738542</v>
       </c>
       <c r="X11" t="n">
-        <v>0.04807672007362823</v>
+        <v>0.04805265882449463</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.003164098880467866</v>
+        <v>0.009410356942790793</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0743633690294051</v>
+        <v>0.08969865878163082</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.06338923176817143</v>
+        <v>0.04294847395553066</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.04712738019669176</v>
+        <v>0.09062728159650402</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.09776905627177691</v>
+        <v>-0.0910819325612508</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1782487418547299</v>
+        <v>0.1764437997482602</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06629437569466372</v>
+        <v>0.06150766876762432</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03736229539823821</v>
+        <v>0.06435446134738067</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02297752038496893</v>
+        <v>0.01876852176039824</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07552496259456651</v>
+        <v>0.08453962401340474</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05431114910513633</v>
+        <v>0.007043199604669799</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001007323792604933</v>
+        <v>0.02313807603914238</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006308591368124649</v>
+        <v>0.00326857438268041</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05619838600705237</v>
+        <v>0.0044938159970822</v>
       </c>
       <c r="N12" t="n">
-        <v>0.005789958217859215</v>
+        <v>0.001790719543199844</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01216297434560368</v>
+        <v>0.05188763877189654</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06568541587702358</v>
+        <v>0.07557364739202718</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.05563479800893319</v>
+        <v>0.02075153193048335</v>
       </c>
       <c r="R12" t="n">
-        <v>0.06834745056475146</v>
+        <v>0.06948463815626429</v>
       </c>
       <c r="S12" t="n">
-        <v>0.08551760658226033</v>
+        <v>0.1022888312641343</v>
       </c>
       <c r="T12" t="n">
-        <v>0.002619239519764308</v>
+        <v>0.0004711131497332195</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09568016684313675</v>
+        <v>0.08650761169871075</v>
       </c>
       <c r="V12" t="n">
-        <v>0.035972465307122</v>
+        <v>0.0008012106428159051</v>
       </c>
       <c r="W12" t="n">
-        <v>0.06591817754478065</v>
+        <v>0.07439583644141283</v>
       </c>
       <c r="X12" t="n">
-        <v>0.04281505742799673</v>
+        <v>0.03565296372408348</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01865547839176708</v>
+        <v>0.02622694868176549</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.03790351875405673</v>
+        <v>0.07342810090549383</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.06700371270999307</v>
+        <v>0.06702205752126786</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.02030937555959534</v>
+        <v>0.04660320826432842</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1747859421836568</v>
+        <v>0.2186243686942796</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1951647704627166</v>
+        <v>0.1906202815234833</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08872465811811554</v>
+        <v>0.05999517267590803</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07211847682132071</v>
+        <v>0.07457476398636083</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006125735897925098</v>
+        <v>0.03520462649684383</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02351893638074189</v>
+        <v>0.08149402976097164</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04402262030556651</v>
+        <v>0.08068906760943233</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06779981360730773</v>
+        <v>0.01520101359161527</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009653495635019568</v>
+        <v>0.004979227570213541</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06248711109064597</v>
+        <v>0.01658004785395438</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01132482684442299</v>
+        <v>0.03660179725673309</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02267873899780632</v>
+        <v>0.04404310905008056</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02210632503302095</v>
+        <v>0.03007231945106829</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02517937239101693</v>
+        <v>0.007316980546448708</v>
       </c>
       <c r="R13" t="n">
-        <v>0.08017808470676169</v>
+        <v>0.05040319716376888</v>
       </c>
       <c r="S13" t="n">
-        <v>0.03239707471799132</v>
+        <v>0.05919893654161446</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01573727754001465</v>
+        <v>0.02113291827186512</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02091267496206568</v>
+        <v>0.0613126809829536</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02239940838781021</v>
+        <v>0.02013921244611972</v>
       </c>
       <c r="W13" t="n">
-        <v>0.09803101987590056</v>
+        <v>0.07541348907148672</v>
       </c>
       <c r="X13" t="n">
-        <v>0.09170391222562904</v>
+        <v>0.07174562755085592</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01726895874046934</v>
+        <v>0.005140467810478903</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.06750779558603319</v>
+        <v>0.08112672444487491</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.001037826227929706</v>
+        <v>0.04417509547063579</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.09708585590648423</v>
+        <v>0.02345949439571551</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2460904436293652</v>
+        <v>0.2454527102231195</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1968835049137431</v>
+        <v>0.1965648542639094</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02575346873932089</v>
+        <v>0.02876340215944028</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01776435999130081</v>
+        <v>0.02840027546867748</v>
       </c>
       <c r="H14" t="n">
-        <v>0.004834586550744685</v>
+        <v>0.01326431253492315</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01696862537998125</v>
+        <v>0.00912185052825199</v>
       </c>
       <c r="J14" t="n">
-        <v>0.008654428943834542</v>
+        <v>0.004847801817512864</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00325728040808045</v>
+        <v>0.01117180658468487</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06841652460572861</v>
+        <v>0.05325392318724764</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04924589396608372</v>
+        <v>0.08472037212907771</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01320887111389647</v>
+        <v>0.003311071193166083</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02341787810333166</v>
+        <v>0.006162734026372635</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1397194583636224</v>
+        <v>0.02517200866637283</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02180989121870448</v>
+        <v>0.03186922189575303</v>
       </c>
       <c r="R14" t="n">
-        <v>0.04080985656272204</v>
+        <v>0.08891985589241148</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06280508306611002</v>
+        <v>0.08825117477640555</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01470673807805523</v>
+        <v>0.006197370228604562</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06379054594170898</v>
+        <v>0.08123789890658242</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0447443956129203</v>
+        <v>0.0656198653141116</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07445888411980295</v>
+        <v>0.0842397526985169</v>
       </c>
       <c r="X14" t="n">
-        <v>0.08173877106290549</v>
+        <v>0.04908840239058858</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.05007080990926052</v>
+        <v>0.09619699419338987</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.04654595315425739</v>
+        <v>0.0554004293613144</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.1173175674374726</v>
+        <v>0.08035064940434242</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.009960127670154487</v>
+        <v>0.004438826642251663</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.2087152063909201</v>
+        <v>0.1633314461548659</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.2276709378101227</v>
+        <v>0.2366445063467209</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04716552026316223</v>
+        <v>0.07382664786980715</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05560122375531032</v>
+        <v>0.003324218490411514</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001225051826006431</v>
+        <v>0.004722901520342391</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008896881961401292</v>
+        <v>0.02366129289490036</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0490219280438576</v>
+        <v>0.07755881172672995</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1056068706297344</v>
+        <v>0.08422663213802707</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02387106262679265</v>
+        <v>0.005479953063063441</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0224599591905697</v>
+        <v>0.04323780536687347</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03149326926931616</v>
+        <v>0.0637950960391053</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03542524459684001</v>
+        <v>0.0309933718578359</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03452212200286377</v>
+        <v>0.005139006795424087</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.03876219246069999</v>
+        <v>0.004034069696472973</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01682482856433263</v>
+        <v>0.00388742223658652</v>
       </c>
       <c r="S15" t="n">
-        <v>0.09330203367725939</v>
+        <v>0.0693560549739321</v>
       </c>
       <c r="T15" t="n">
-        <v>0.06950897909802531</v>
+        <v>0.08865793978369334</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06152054037516048</v>
+        <v>0.04715460093353156</v>
       </c>
       <c r="V15" t="n">
-        <v>0.009341520969568393</v>
+        <v>0.08243381658379462</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0987199284380727</v>
+        <v>0.08784163587463172</v>
       </c>
       <c r="X15" t="n">
-        <v>0.06871546984957309</v>
+        <v>0.06446742343649062</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.008824943086238438</v>
+        <v>0.009485772173536664</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0616756933994248</v>
+        <v>0.07927742617395619</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.005753207495692275</v>
+        <v>0.04485155005879042</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.05176152842009811</v>
+        <v>0.002586550312062952</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.2301319581552699</v>
+        <v>0.2186041130327111</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1508939338596194</v>
+        <v>0.1468612730623672</v>
       </c>
       <c r="F16" t="n">
-        <v>0.009913958246563846</v>
+        <v>0.01877848625841608</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01567233505342916</v>
+        <v>0.003548945204581561</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06185366016660827</v>
+        <v>0.01146532057692844</v>
       </c>
       <c r="I16" t="n">
-        <v>0.043757483462983</v>
+        <v>0.06438860060587978</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0005520622308409783</v>
+        <v>0.03539750756390077</v>
       </c>
       <c r="K16" t="n">
-        <v>0.003580119599599482</v>
+        <v>0.00177692932224528</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01053308274284448</v>
+        <v>0.004394677148759716</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06174180204707665</v>
+        <v>0.005693706047992316</v>
       </c>
       <c r="N16" t="n">
-        <v>0.003514626113780392</v>
+        <v>0.01487182606061411</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05594720459973325</v>
+        <v>0.01932628643563869</v>
       </c>
       <c r="P16" t="n">
-        <v>0.05204887398188603</v>
+        <v>0.07026220829174354</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.05502982773641853</v>
+        <v>0.06357094293992062</v>
       </c>
       <c r="R16" t="n">
-        <v>0.06089648984961207</v>
+        <v>0.08663843327652242</v>
       </c>
       <c r="S16" t="n">
-        <v>0.07728625066250384</v>
+        <v>0.0672850150056659</v>
       </c>
       <c r="T16" t="n">
-        <v>0.06185910565438173</v>
+        <v>0.03914619098089819</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02865584922913821</v>
+        <v>0.0704451701324873</v>
       </c>
       <c r="V16" t="n">
-        <v>0.08324472592716053</v>
+        <v>0.02925086697569745</v>
       </c>
       <c r="W16" t="n">
-        <v>0.03311551990524757</v>
+        <v>0.01825785365220608</v>
       </c>
       <c r="X16" t="n">
-        <v>0.07622655899611053</v>
+        <v>0.07753920672207394</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.08422034702967876</v>
+        <v>0.05768994625745469</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.03023416710956689</v>
+        <v>0.07717726718190523</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0684020837515016</v>
+        <v>0.08546297461924274</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.02171386590333433</v>
+        <v>0.07763163873922527</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.05385407473209116</v>
+        <v>0.0424890268819675</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1751616879095748</v>
+        <v>0.1772923054222657</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08812921307371487</v>
+        <v>0.04687754799455581</v>
       </c>
       <c r="G17" t="n">
-        <v>0.008900109961382794</v>
+        <v>0.0131212821442825</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04054789758249965</v>
+        <v>0.005966404930354763</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1039859367731106</v>
+        <v>0.0335723753762363</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02500987276652019</v>
+        <v>0.07459400682727367</v>
       </c>
       <c r="K17" t="n">
-        <v>0.08343112196357423</v>
+        <v>0.09417867986871849</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002991460473730713</v>
+        <v>0.01769286676889775</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006817365956790973</v>
+        <v>0.02453337986881619</v>
       </c>
       <c r="N17" t="n">
-        <v>0.004292980122117508</v>
+        <v>0.00541759453849591</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06022326195082902</v>
+        <v>0.06349641036790571</v>
       </c>
       <c r="P17" t="n">
-        <v>0.07840644277804278</v>
+        <v>0.1135203087180294</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01639535619947816</v>
+        <v>0.04738840911306631</v>
       </c>
       <c r="R17" t="n">
-        <v>0.05972850845299551</v>
+        <v>0.001003315968507719</v>
       </c>
       <c r="S17" t="n">
-        <v>0.06211390727499772</v>
+        <v>0.1091084467469094</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04935302873687043</v>
+        <v>0.09892553662720438</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07331382163989403</v>
+        <v>0.03103560618662452</v>
       </c>
       <c r="V17" t="n">
-        <v>0.05733019204145748</v>
+        <v>0.01940541641455801</v>
       </c>
       <c r="W17" t="n">
-        <v>0.001470150236009554</v>
+        <v>0.01825931028166264</v>
       </c>
       <c r="X17" t="n">
-        <v>0.04980504100092633</v>
+        <v>0.09818317600039952</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01521934039361086</v>
+        <v>0.03555386033063349</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.08251812288627468</v>
+        <v>0.01209403323917976</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.01884054833372765</v>
+        <v>0.01035876035770869</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01117631940144424</v>
+        <v>0.02571327132997895</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0249146863594033</v>
+        <v>0.0498025332165964</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1392449990954358</v>
+        <v>0.1383777664198416</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07343929170844259</v>
+        <v>0.07681372865884332</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09994951471045782</v>
+        <v>0.06110760164474845</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07598413914229203</v>
+        <v>0.01157795941171606</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01689753372343676</v>
+        <v>0.03966492630285305</v>
       </c>
       <c r="J18" t="n">
-        <v>0.004222098452751911</v>
+        <v>0.004714132429211617</v>
       </c>
       <c r="K18" t="n">
-        <v>0.008468075224113081</v>
+        <v>0.0003356797120447317</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07609617034158155</v>
+        <v>0.052718986566982</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05503762517445804</v>
+        <v>0.07531711105960723</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01530126138395826</v>
+        <v>0.03129019858823207</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1063211423438025</v>
+        <v>0.07846066933253978</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01660516418327708</v>
+        <v>0.02830828551557206</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.03332502381897402</v>
+        <v>0.05092459122184353</v>
       </c>
       <c r="R18" t="n">
-        <v>0.02694948904801307</v>
+        <v>0.07152452262658231</v>
       </c>
       <c r="S18" t="n">
-        <v>0.08794025341471126</v>
+        <v>0.06635517020009281</v>
       </c>
       <c r="T18" t="n">
-        <v>0.03346922510565462</v>
+        <v>0.03700323327776101</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1094467325577263</v>
+        <v>0.05391211932890228</v>
       </c>
       <c r="V18" t="n">
-        <v>0.02607333373012662</v>
+        <v>0.05211550930651036</v>
       </c>
       <c r="W18" t="n">
-        <v>0.003977550191431476</v>
+        <v>0.009008737710063251</v>
       </c>
       <c r="X18" t="n">
-        <v>0.04402416027188673</v>
+        <v>0.04986620630071214</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.009572983385658655</v>
+        <v>0.009088067199093773</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.009698853504425106</v>
+        <v>0.06071321884403205</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.05790699032872509</v>
+        <v>0.05435506631553753</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.009293388254095567</v>
+        <v>0.02482427844651858</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1426927472281291</v>
+        <v>0.1459611505117161</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1615107261554879</v>
+        <v>0.1690486663171377</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005927556220208711</v>
+        <v>0.03631552830887473</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07708718713305344</v>
+        <v>0.05698017029592603</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0348997632254314</v>
+        <v>0.03039035398849673</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01460284432187313</v>
+        <v>0.005977369950547467</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08029031843781727</v>
+        <v>0.09239650639408523</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01756726351169738</v>
+        <v>0.002530210482368511</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01065418486445321</v>
+        <v>0.002846943812217928</v>
       </c>
       <c r="M19" t="n">
-        <v>0.09397893096427942</v>
+        <v>0.08587284426217569</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01479925047606872</v>
+        <v>0.0009742568520480728</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0667039069488622</v>
+        <v>0.04080455218769936</v>
       </c>
       <c r="P19" t="n">
-        <v>0.05521597315853867</v>
+        <v>0.07646586015800348</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03553685479360789</v>
+        <v>0.002682797090366769</v>
       </c>
       <c r="R19" t="n">
-        <v>0.09227944181570284</v>
+        <v>0.1143636701018564</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0841988114781453</v>
+        <v>0.1141814594599073</v>
       </c>
       <c r="T19" t="n">
-        <v>0.04106959402809884</v>
+        <v>0.03462147984277827</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01213674095598608</v>
+        <v>0.02215187205466442</v>
       </c>
       <c r="V19" t="n">
-        <v>0.09103948244165953</v>
+        <v>0.03425389094984917</v>
       </c>
       <c r="W19" t="n">
-        <v>0.008055676244432314</v>
+        <v>0.04935140534186081</v>
       </c>
       <c r="X19" t="n">
-        <v>0.01937981124199007</v>
+        <v>0.06234822968534283</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01938908707699633</v>
+        <v>0.0006184933922289286</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.08602031583248249</v>
+        <v>0.0558509375882037</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02136847705182916</v>
+        <v>0.03603913479220995</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01779852777678547</v>
+        <v>0.04198203300828848</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1659454741328804</v>
+        <v>0.1974803338811424</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1631220651762634</v>
+        <v>0.1635273584512714</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07108293892870568</v>
+        <v>0.05674821853133065</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07115160117350296</v>
+        <v>0.01588893271879321</v>
       </c>
       <c r="H20" t="n">
-        <v>0.004046120960388117</v>
+        <v>0.001582969774791232</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002581090296978182</v>
+        <v>0.03137408089736549</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03859795263708409</v>
+        <v>0.0381833803107413</v>
       </c>
       <c r="K20" t="n">
-        <v>0.08532554532430954</v>
+        <v>0.01537862809887225</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004430870555550382</v>
+        <v>0.05656587436926618</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03427823956863327</v>
+        <v>0.072338573351962</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0007492297009154702</v>
+        <v>0.0189999578082801</v>
       </c>
       <c r="O20" t="n">
-        <v>0.08432599809929918</v>
+        <v>0.05179973014109796</v>
       </c>
       <c r="P20" t="n">
-        <v>0.004150759261338775</v>
+        <v>0.03705400041333118</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05193197825570856</v>
+        <v>0.05214056334134935</v>
       </c>
       <c r="R20" t="n">
-        <v>0.09866492788773072</v>
+        <v>0.06277974650043536</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05189351084744363</v>
+        <v>0.07665207542113284</v>
       </c>
       <c r="T20" t="n">
-        <v>0.05495686118244651</v>
+        <v>0.04779597068882761</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07284523870491336</v>
+        <v>0.07664883449128378</v>
       </c>
       <c r="V20" t="n">
-        <v>0.009028731207401644</v>
+        <v>0.02038029433524673</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02887382194912951</v>
+        <v>0.0669098026989443</v>
       </c>
       <c r="X20" t="n">
-        <v>0.060634004308566</v>
+        <v>0.07672634679889802</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.007667215442699918</v>
+        <v>0.0009973760804151417</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.05906768189082648</v>
+        <v>0.04504588952650181</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.09097147436644433</v>
+        <v>0.06459862189551369</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.01274420744998367</v>
+        <v>0.01341013180561985</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1167005661561528</v>
+        <v>0.1005002179685333</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1719022174254357</v>
+        <v>0.1720793199257219</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08019492289754587</v>
+        <v>0.08708572929894917</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01481238971820796</v>
+        <v>0.04340594688687085</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08712578539676313</v>
+        <v>0.004385813093122261</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0129006603684041</v>
+        <v>0.04787385623095754</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005654617527904255</v>
+        <v>0.02682147686479434</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03821299768823792</v>
+        <v>0.04565939851252917</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01151750742874933</v>
+        <v>0.01639849492096729</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03090131124283123</v>
+        <v>0.06928157243535818</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0002387951842016465</v>
+        <v>0.04905391470318558</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03827521811559106</v>
+        <v>0.005582248771310248</v>
       </c>
       <c r="P21" t="n">
-        <v>0.07572860130864888</v>
+        <v>0.03501711207599302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0006513613322093654</v>
+        <v>0.02248453121850277</v>
       </c>
       <c r="R21" t="n">
-        <v>0.06820267577500727</v>
+        <v>0.001452452983292097</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01597254654087346</v>
+        <v>0.09942753976633925</v>
       </c>
       <c r="T21" t="n">
-        <v>0.07200656260606055</v>
+        <v>0.06479746146673955</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07709460000119167</v>
+        <v>0.09678694210850161</v>
       </c>
       <c r="V21" t="n">
-        <v>0.09617148737107878</v>
+        <v>0.07579506697903261</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01122654080802173</v>
+        <v>0.03415078537325943</v>
       </c>
       <c r="X21" t="n">
-        <v>0.08578184650879345</v>
+        <v>0.02649070950620498</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.002590232169072547</v>
+        <v>0.01768258859932706</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.09539383890556725</v>
+        <v>0.09531444661474694</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.06841338266502599</v>
+        <v>0.01763946731834468</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0109321184400125</v>
+        <v>0.01741244427167139</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1602754673295104</v>
+        <v>0.1083073201965206</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.182913941905408</v>
+        <v>0.1813857078088435</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02059962018070194</v>
+        <v>0.06288511238108226</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02052866975828248</v>
+        <v>0.08855338703826786</v>
       </c>
       <c r="H22" t="n">
-        <v>0.005549108948354165</v>
+        <v>0.0005960476149188992</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02345864819482774</v>
+        <v>0.02157262410018167</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03075674527661727</v>
+        <v>0.04318322002765235</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03466397516908221</v>
+        <v>0.02335056134570545</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03060458817034006</v>
+        <v>0.02384188304834159</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04186333935390678</v>
+        <v>0.05688024587775083</v>
       </c>
       <c r="N22" t="n">
-        <v>0.007324966733198676</v>
+        <v>0.004056065434335863</v>
       </c>
       <c r="O22" t="n">
-        <v>0.09484029262219762</v>
+        <v>0.03546956683047974</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01666242474347571</v>
+        <v>0.07311363332217914</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1014766599005577</v>
+        <v>0.08477251981266593</v>
       </c>
       <c r="R22" t="n">
-        <v>0.09649446924385847</v>
+        <v>0.03212641750029196</v>
       </c>
       <c r="S22" t="n">
-        <v>0.07881902881293071</v>
+        <v>0.06085350368587056</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01491677433510688</v>
+        <v>0.07924924478420414</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08398965978765319</v>
+        <v>0.07952546619171623</v>
       </c>
       <c r="V22" t="n">
-        <v>0.005552836035364849</v>
+        <v>0.001424819645234563</v>
       </c>
       <c r="W22" t="n">
-        <v>0.03961401994198633</v>
+        <v>0.01343077421452391</v>
       </c>
       <c r="X22" t="n">
-        <v>0.07794803741666252</v>
+        <v>0.081348180639663</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05712414318814187</v>
+        <v>0.002085414503121246</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.05502666538622718</v>
+        <v>0.06996849795242195</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.05808541715478405</v>
+        <v>0.05799186596109535</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.004099909645741542</v>
+        <v>0.00372094808829536</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.08632827573073851</v>
+        <v>0.06356757921470642</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2154790261193912</v>
+        <v>0.1969111614406672</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1221437454601991</v>
+        <v>0.09834855734918649</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03298767876053403</v>
+        <v>0.04382201447170224</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05088179877081679</v>
+        <v>0.04255020006589241</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01955742155326475</v>
+        <v>0.03160075546064666</v>
       </c>
       <c r="J23" t="n">
-        <v>0.006602372372031304</v>
+        <v>0.02112900395397485</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0550078463406573</v>
+        <v>0.01577941190550714</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0007673847890453247</v>
+        <v>0.01259844322811371</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0230016252096466</v>
+        <v>0.09151797968141188</v>
       </c>
       <c r="N23" t="n">
-        <v>0.03271285685348916</v>
+        <v>0.01817980323170388</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0734898328923876</v>
+        <v>0.06868271825767695</v>
       </c>
       <c r="P23" t="n">
-        <v>0.06321228228890995</v>
+        <v>0.06912044188697859</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.06329602925133855</v>
+        <v>0.006538200894541503</v>
       </c>
       <c r="R23" t="n">
-        <v>0.06118628582832578</v>
+        <v>0.02390479598715561</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1102584889300583</v>
+        <v>0.08430179558333618</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0001902911821596279</v>
+        <v>0.09523870502715254</v>
       </c>
       <c r="U23" t="n">
-        <v>0.008180979861136781</v>
+        <v>0.01953136632600577</v>
       </c>
       <c r="V23" t="n">
-        <v>0.04696034640395259</v>
+        <v>0.01632931281079029</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01858462628033354</v>
+        <v>0.04904359846938204</v>
       </c>
       <c r="X23" t="n">
-        <v>0.07901469124770504</v>
+        <v>0.04345372003679401</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.002962197406932823</v>
+        <v>0.0233247472361989</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.02484432278156671</v>
+        <v>0.0001699892234469885</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.09091696046238232</v>
+        <v>0.1073920658241154</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.01323993507312587</v>
+        <v>0.01744237308828572</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.07187625681153532</v>
+        <v>0.05412745353925746</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1424942247610699</v>
+        <v>0.1440168786687208</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006346303956980769</v>
+        <v>0.0114076121532185</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02347925229370966</v>
+        <v>0.04441617053234734</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01017924471394991</v>
+        <v>0.04133941390413597</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02578852451764243</v>
+        <v>0.04947921375326749</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02256020832619171</v>
+        <v>0.03501344571029427</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05546748212806991</v>
+        <v>0.08104295364067163</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02790934482532712</v>
+        <v>0.03634586373185245</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02947669378068089</v>
+        <v>0.07549371851997023</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01418257598408332</v>
+        <v>0.04087974393543826</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02515182186538572</v>
+        <v>0.003008039306840093</v>
       </c>
       <c r="P24" t="n">
-        <v>0.09527164689757099</v>
+        <v>0.08800562217164019</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03962732655546013</v>
+        <v>0.01737070594729666</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0520631925484329</v>
+        <v>0.07151010206542791</v>
       </c>
       <c r="S24" t="n">
-        <v>0.07633336485057121</v>
+        <v>0.07788908880131606</v>
       </c>
       <c r="T24" t="n">
-        <v>0.05006809888491982</v>
+        <v>0.01188323589043796</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09184673728686327</v>
+        <v>0.0681093200765971</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0149676891496804</v>
+        <v>0.01427202502524545</v>
       </c>
       <c r="W24" t="n">
-        <v>0.08058829405800189</v>
+        <v>0.00883746325674469</v>
       </c>
       <c r="X24" t="n">
-        <v>0.08620963590409407</v>
+        <v>0.0275530426237484</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.054233972274014</v>
+        <v>0.08686800536187669</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.02093246613113012</v>
+        <v>0.0775664825721029</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.03505471285730342</v>
+        <v>0.0239134828925305</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.06226141020993622</v>
+        <v>0.007795248126999153</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.1991847205090597</v>
+        <v>-0.2317487216623107</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2012462405332147</v>
+        <v>0.190501332879451</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05323514448439446</v>
+        <v>0.02105908997035501</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06025860590348021</v>
+        <v>0.03912449598723831</v>
       </c>
       <c r="H25" t="n">
-        <v>0.009683545398337535</v>
+        <v>0.009879812522463671</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05414354956985805</v>
+        <v>0.0446255921098013</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01907101490678471</v>
+        <v>0.01917831748030443</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04748691211145605</v>
+        <v>0.0830749403195888</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0005606167839208984</v>
+        <v>0.03766917144726851</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0868955479990615</v>
+        <v>0.06902700876547528</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01475018331602862</v>
+        <v>0.0413496647781151</v>
       </c>
       <c r="O25" t="n">
-        <v>0.07082704539252881</v>
+        <v>0.07706861711521748</v>
       </c>
       <c r="P25" t="n">
-        <v>0.006880371597478572</v>
+        <v>0.04412396271551918</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05618555607260019</v>
+        <v>0.06707730763307475</v>
       </c>
       <c r="R25" t="n">
-        <v>0.09426172668838749</v>
+        <v>0.0726057760256386</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01147951301115777</v>
+        <v>0.01204881414004603</v>
       </c>
       <c r="T25" t="n">
-        <v>0.04085736021391836</v>
+        <v>0.003590389188343433</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00240788970888625</v>
+        <v>0.002481980939646872</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1039810101048621</v>
+        <v>0.07367708954369674</v>
       </c>
       <c r="W25" t="n">
-        <v>0.05831548326104693</v>
+        <v>0.001802316690439668</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01869164110017199</v>
+        <v>0.05661657773718845</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.09693173485343391</v>
+        <v>0.08225644316287582</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.02250345108864759</v>
+        <v>0.03869435591175189</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.002855840291666252</v>
+        <v>0.01568492610101017</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.0677362561418918</v>
+        <v>0.08728334971494046</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.2095999551699858</v>
+        <v>-0.2398536863299895</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1095109924359825</v>
+        <v>0.1101399494592188</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02161601097771336</v>
+        <v>0.0252823376541984</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01013859272511623</v>
+        <v>0.1062364249811771</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04871763331920281</v>
+        <v>0.01230680037361879</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01504683041714112</v>
+        <v>0.0001607797106137052</v>
       </c>
       <c r="J26" t="n">
-        <v>0.038550717278646</v>
+        <v>0.0575349529616266</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03216474150444124</v>
+        <v>0.002748033093135474</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01550261609057917</v>
+        <v>0.01931815732316338</v>
       </c>
       <c r="M26" t="n">
-        <v>0.08127000083070891</v>
+        <v>0.1087139043032924</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0170249707253186</v>
+        <v>0.03205038720342587</v>
       </c>
       <c r="O26" t="n">
-        <v>0.05257116923623067</v>
+        <v>0.01702075656768002</v>
       </c>
       <c r="P26" t="n">
-        <v>0.09878928739758995</v>
+        <v>0.09160136316758327</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.07999308432386452</v>
+        <v>0.05747690673862982</v>
       </c>
       <c r="R26" t="n">
-        <v>0.004421010060642399</v>
+        <v>0.07777643920502304</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0009000557477330466</v>
+        <v>0.01169060765531441</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01671233690393943</v>
+        <v>0.02559014645525284</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08577709136066625</v>
+        <v>0.01908109629124222</v>
       </c>
       <c r="V26" t="n">
-        <v>0.06058329756379523</v>
+        <v>0.0336347082662754</v>
       </c>
       <c r="W26" t="n">
-        <v>0.09173352982109688</v>
+        <v>0.09208082969667922</v>
       </c>
       <c r="X26" t="n">
-        <v>0.08628245152767372</v>
+        <v>0.07763392353729354</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.03445466327600401</v>
+        <v>0.01016292802605822</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.03087402572554626</v>
+        <v>0.03107951939603781</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.02881011861070322</v>
+        <v>0.06259348724521152</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.04806576457564705</v>
+        <v>0.02822551014746712</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1582152947984669</v>
+        <v>0.1722455443511939</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1533598034441801</v>
+        <v>0.1526208133045275</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1044122423243118</v>
+        <v>0.1014964149067328</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08676029110555032</v>
+        <v>0.06713950170196277</v>
       </c>
       <c r="H27" t="n">
-        <v>0.036524371983535</v>
+        <v>0.02491994624737478</v>
       </c>
       <c r="I27" t="n">
-        <v>0.004261955278816528</v>
+        <v>0.008484740798567441</v>
       </c>
       <c r="J27" t="n">
-        <v>0.04644983530928747</v>
+        <v>0.09202609221312746</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02193440476435805</v>
+        <v>0.01952092596467731</v>
       </c>
       <c r="L27" t="n">
-        <v>0.007607779205566274</v>
+        <v>0.01819658293285763</v>
       </c>
       <c r="M27" t="n">
-        <v>0.06628160771339882</v>
+        <v>0.03066419080008173</v>
       </c>
       <c r="N27" t="n">
-        <v>0.008108840983189911</v>
+        <v>0.007869676529230424</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03154661255219089</v>
+        <v>0.03080225909755577</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03502943075597485</v>
+        <v>0.03035628801079418</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.08036815438881745</v>
+        <v>0.06275958201622815</v>
       </c>
       <c r="R27" t="n">
-        <v>0.002617506544345251</v>
+        <v>0.0532378508778609</v>
       </c>
       <c r="S27" t="n">
-        <v>0.05076787894172849</v>
+        <v>0.03832606583903055</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01196806829065922</v>
+        <v>0.03355232999274313</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01292188827159788</v>
+        <v>0.02746653275304174</v>
       </c>
       <c r="V27" t="n">
-        <v>0.06507280529372347</v>
+        <v>0.01071977818225456</v>
       </c>
       <c r="W27" t="n">
-        <v>0.06210700911223634</v>
+        <v>0.07962764871165667</v>
       </c>
       <c r="X27" t="n">
-        <v>0.08317248003862686</v>
+        <v>0.06626379471150158</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.07831071000989213</v>
+        <v>0.09656887549274802</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.07717953326326037</v>
+        <v>0.03437995467700362</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.02438581256966166</v>
+        <v>0.01257831678533075</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.002210781299270854</v>
+        <v>0.05304265075763801</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.2213303484106095</v>
+        <v>0.2082760644615324</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1564712515916493</v>
+        <v>0.1552210709027143</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02695842794903472</v>
+        <v>0.04883501274413569</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01228749564476266</v>
+        <v>0.03409748489220121</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05599594158660829</v>
+        <v>0.01217687347102117</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01355831071251148</v>
+        <v>0.00495754236337184</v>
       </c>
       <c r="J28" t="n">
-        <v>0.06269633739364261</v>
+        <v>0.08488780622465295</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04826204095145067</v>
+        <v>0.03886030598250727</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0001890692729996527</v>
+        <v>0.009588190717110355</v>
       </c>
       <c r="M28" t="n">
-        <v>0.08331289705852434</v>
+        <v>0.06739095949800354</v>
       </c>
       <c r="N28" t="n">
-        <v>0.05748514243222245</v>
+        <v>0.08465296776060793</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02752921396311981</v>
+        <v>0.01817583559783867</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0687917492893292</v>
+        <v>0.07148236660199664</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.09528484404286383</v>
+        <v>0.002309377570637114</v>
       </c>
       <c r="R28" t="n">
-        <v>0.02657639494664257</v>
+        <v>0.08540991848615181</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03850902514390918</v>
+        <v>0.02762481524556476</v>
       </c>
       <c r="T28" t="n">
-        <v>0.04420111429745614</v>
+        <v>0.0002577915409372665</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04632391075831727</v>
+        <v>0.08188424182301277</v>
       </c>
       <c r="V28" t="n">
-        <v>0.06901183693251874</v>
+        <v>0.03883475139887436</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06768958077219424</v>
+        <v>0.08557993820276322</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01389559498923305</v>
+        <v>0.02558041671068428</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.001753111206895069</v>
+        <v>0.007683517504940273</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.06916482353272259</v>
+        <v>0.07851824814649129</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.01120349024379688</v>
+        <v>0.06333707511180259</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0593196468792446</v>
+        <v>0.027874562404693</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.01760782440066697</v>
+        <v>0.03661646163937396</v>
       </c>
     </row>
     <row r="29">
@@ -3160,82 +3160,82 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1952480421056275</v>
+        <v>0.1756660914705699</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08031270647334525</v>
+        <v>0.09219658750084447</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03081455437536045</v>
+        <v>0.006618069475495065</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04054579161070586</v>
+        <v>0.007569491640717155</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03426092828362336</v>
+        <v>0.002057625310599429</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01430343292670459</v>
+        <v>0.02153109892962594</v>
       </c>
       <c r="K29" t="n">
-        <v>0.004701367324418319</v>
+        <v>0.007911992957643934</v>
       </c>
       <c r="L29" t="n">
-        <v>0.004613668648175336</v>
+        <v>0.01675970511253919</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09108955733674026</v>
+        <v>0.1041335284895661</v>
       </c>
       <c r="N29" t="n">
-        <v>0.07678520396404367</v>
+        <v>0.01138779987146177</v>
       </c>
       <c r="O29" t="n">
-        <v>0.03513209874795249</v>
+        <v>0.05768735429571003</v>
       </c>
       <c r="P29" t="n">
-        <v>0.04448058079923198</v>
+        <v>0.008665502893893486</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.04688417029541959</v>
+        <v>0.09941058410528858</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02510498242655727</v>
+        <v>0.07569327534594258</v>
       </c>
       <c r="S29" t="n">
-        <v>0.01571053604086344</v>
+        <v>0.02290395659073095</v>
       </c>
       <c r="T29" t="n">
-        <v>0.07304547719243087</v>
+        <v>0.001522566795850763</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01526003622750251</v>
+        <v>0.09108152372589053</v>
       </c>
       <c r="V29" t="n">
-        <v>0.08728379698013092</v>
+        <v>0.110504557057174</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02875359880303055</v>
+        <v>0.08939491023567568</v>
       </c>
       <c r="X29" t="n">
-        <v>0.09193380320184637</v>
+        <v>0.01169966357349797</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.02444980288871989</v>
+        <v>0.03536537548769885</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.08634988043708575</v>
+        <v>0.01101210103722892</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.02242115172128567</v>
+        <v>0.1089395841264008</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.02576287329482557</v>
+        <v>0.005953145440523747</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.01891004639548182</v>
+        <v>0.07998696664967388</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>